--- a/tweets_normalizados_2019.xlsx
+++ b/tweets_normalizados_2019.xlsx
@@ -3506,7 +3506,9 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr"/>
+      <c r="A237" t="n">
+        <v>1</v>
+      </c>
       <c r="B237" t="n">
         <v>1.081313462947434e+18</v>
       </c>
@@ -3517,7 +3519,9 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
+      <c r="A238" t="n">
+        <v>3</v>
+      </c>
       <c r="B238" t="n">
         <v>1.169608428265857e+18</v>
       </c>
@@ -3528,7 +3532,9 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr"/>
+      <c r="A239" t="n">
+        <v>1</v>
+      </c>
       <c r="B239" t="n">
         <v>1.150183438848279e+18</v>
       </c>
@@ -3539,7 +3545,9 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr"/>
+      <c r="A240" t="n">
+        <v>3</v>
+      </c>
       <c r="B240" t="n">
         <v>1.161457112536539e+18</v>
       </c>
@@ -3550,7 +3558,9 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr"/>
+      <c r="A241" t="n">
+        <v>3</v>
+      </c>
       <c r="B241" t="n">
         <v>1.160705290746171e+18</v>
       </c>
@@ -3561,7 +3571,9 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr"/>
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
       <c r="B242" t="n">
         <v>1.108523960994615e+18</v>
       </c>
@@ -3572,7 +3584,9 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
+      <c r="A243" t="n">
+        <v>3</v>
+      </c>
       <c r="B243" t="n">
         <v>1.091001195609625e+18</v>
       </c>
@@ -3583,7 +3597,9 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr"/>
+      <c r="A244" t="n">
+        <v>2</v>
+      </c>
       <c r="B244" t="n">
         <v>1.172015093837631e+18</v>
       </c>
@@ -3594,7 +3610,9 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr"/>
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
       <c r="B245" t="n">
         <v>1.124345260744819e+18</v>
       </c>
@@ -3605,7 +3623,9 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr"/>
+      <c r="A246" t="n">
+        <v>1</v>
+      </c>
       <c r="B246" t="n">
         <v>1.20937292679501e+18</v>
       </c>
@@ -3616,7 +3636,9 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr"/>
+      <c r="A247" t="n">
+        <v>3</v>
+      </c>
       <c r="B247" t="n">
         <v>1.206740813721612e+18</v>
       </c>
@@ -3627,7 +3649,9 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr"/>
+      <c r="A248" t="n">
+        <v>3</v>
+      </c>
       <c r="B248" t="n">
         <v>1.156003939256435e+18</v>
       </c>
@@ -3638,7 +3662,9 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr"/>
+      <c r="A249" t="n">
+        <v>2</v>
+      </c>
       <c r="B249" t="n">
         <v>1.107720071147856e+18</v>
       </c>
@@ -3649,7 +3675,9 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr"/>
+      <c r="A250" t="n">
+        <v>3</v>
+      </c>
       <c r="B250" t="n">
         <v>1.106609397856379e+18</v>
       </c>
@@ -3660,7 +3688,9 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr"/>
+      <c r="A251" t="n">
+        <v>3</v>
+      </c>
       <c r="B251" t="n">
         <v>1.091354234157584e+18</v>
       </c>
@@ -3671,7 +3701,9 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr"/>
+      <c r="A252" t="n">
+        <v>3</v>
+      </c>
       <c r="B252" t="n">
         <v>1.152190048059765e+18</v>
       </c>
@@ -3682,7 +3714,9 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr"/>
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
       <c r="B253" t="n">
         <v>1.137486372036588e+18</v>
       </c>
@@ -3693,7 +3727,9 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" t="n">
+        <v>3</v>
+      </c>
       <c r="B254" t="n">
         <v>1.129088390488646e+18</v>
       </c>
@@ -3704,7 +3740,9 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr"/>
+      <c r="A255" t="n">
+        <v>1</v>
+      </c>
       <c r="B255" t="n">
         <v>1.099775807973745e+18</v>
       </c>
@@ -3715,7 +3753,9 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr"/>
+      <c r="A256" t="n">
+        <v>1</v>
+      </c>
       <c r="B256" t="n">
         <v>1.10056964335224e+18</v>
       </c>
@@ -3726,7 +3766,9 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
+      <c r="A257" t="n">
+        <v>3</v>
+      </c>
       <c r="B257" t="n">
         <v>1.147884455975162e+18</v>
       </c>
@@ -3737,7 +3779,9 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr"/>
+      <c r="A258" t="n">
+        <v>1</v>
+      </c>
       <c r="B258" t="n">
         <v>1.169211896593039e+18</v>
       </c>
@@ -3748,7 +3792,9 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
+      <c r="A259" t="n">
+        <v>1</v>
+      </c>
       <c r="B259" t="n">
         <v>1.107339386725773e+18</v>
       </c>
@@ -3759,7 +3805,9 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr"/>
+      <c r="A260" t="n">
+        <v>1</v>
+      </c>
       <c r="B260" t="n">
         <v>1.097581888829575e+18</v>
       </c>
@@ -3770,7 +3818,9 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr"/>
+      <c r="A261" t="n">
+        <v>2</v>
+      </c>
       <c r="B261" t="n">
         <v>1.171407272376984e+18</v>
       </c>
@@ -3781,7 +3831,9 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr"/>
+      <c r="A262" t="n">
+        <v>2</v>
+      </c>
       <c r="B262" t="n">
         <v>1.161613811763335e+18</v>
       </c>
@@ -3792,7 +3844,9 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr"/>
+      <c r="A263" t="n">
+        <v>1</v>
+      </c>
       <c r="B263" t="n">
         <v>1.163948792372257e+18</v>
       </c>
@@ -3803,7 +3857,9 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr"/>
+      <c r="A264" t="n">
+        <v>1</v>
+      </c>
       <c r="B264" t="n">
         <v>1.150442312159379e+18</v>
       </c>
@@ -3814,7 +3870,9 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr"/>
+      <c r="A265" t="n">
+        <v>2</v>
+      </c>
       <c r="B265" t="n">
         <v>1.137566288556036e+18</v>
       </c>
@@ -3825,7 +3883,9 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr"/>
+      <c r="A266" t="n">
+        <v>1</v>
+      </c>
       <c r="B266" t="n">
         <v>1.150979938062864e+18</v>
       </c>
@@ -3836,7 +3896,9 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" t="n">
+        <v>3</v>
+      </c>
       <c r="B267" t="n">
         <v>1.176574913169318e+18</v>
       </c>
@@ -3847,7 +3909,9 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr"/>
+      <c r="A268" t="n">
+        <v>3</v>
+      </c>
       <c r="B268" t="n">
         <v>1.090979899266007e+18</v>
       </c>
@@ -3858,7 +3922,9 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr"/>
+      <c r="A269" t="n">
+        <v>3</v>
+      </c>
       <c r="B269" t="n">
         <v>1.18033608685117e+18</v>
       </c>
@@ -3869,7 +3935,9 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
+      <c r="A270" t="n">
+        <v>3</v>
+      </c>
       <c r="B270" t="n">
         <v>1.174524036233277e+18</v>
       </c>
@@ -3880,7 +3948,9 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr"/>
+      <c r="A271" t="n">
+        <v>2</v>
+      </c>
       <c r="B271" t="n">
         <v>1.17293172040602e+18</v>
       </c>
@@ -3891,7 +3961,9 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr"/>
+      <c r="A272" t="n">
+        <v>3</v>
+      </c>
       <c r="B272" t="n">
         <v>1.161309355209216e+18</v>
       </c>
@@ -3902,7 +3974,9 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr"/>
+      <c r="A273" t="n">
+        <v>3</v>
+      </c>
       <c r="B273" t="n">
         <v>1.204815685551043e+18</v>
       </c>
@@ -3913,7 +3987,9 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr"/>
+      <c r="A274" t="n">
+        <v>3</v>
+      </c>
       <c r="B274" t="n">
         <v>1.131374640029426e+18</v>
       </c>
@@ -3924,7 +4000,9 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr"/>
+      <c r="A275" t="n">
+        <v>1</v>
+      </c>
       <c r="B275" t="n">
         <v>1.207095083826385e+18</v>
       </c>
@@ -3935,7 +4013,9 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr"/>
+      <c r="A276" t="n">
+        <v>1</v>
+      </c>
       <c r="B276" t="n">
         <v>1.139321434260595e+18</v>
       </c>
@@ -3946,7 +4026,9 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
+      <c r="A277" t="n">
+        <v>3</v>
+      </c>
       <c r="B277" t="n">
         <v>1.183907238311805e+18</v>
       </c>
@@ -3957,7 +4039,9 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr"/>
+      <c r="A278" t="n">
+        <v>3</v>
+      </c>
       <c r="B278" t="n">
         <v>1.16020605441382e+18</v>
       </c>
@@ -3968,7 +4052,9 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr"/>
+      <c r="A279" t="n">
+        <v>3</v>
+      </c>
       <c r="B279" t="n">
         <v>1.16687426313302e+18</v>
       </c>
@@ -3979,7 +4065,9 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr"/>
+      <c r="A280" t="n">
+        <v>1</v>
+      </c>
       <c r="B280" t="n">
         <v>1.102949491685118e+18</v>
       </c>
@@ -3990,7 +4078,9 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr"/>
+      <c r="A281" t="n">
+        <v>3</v>
+      </c>
       <c r="B281" t="n">
         <v>1.11596521422952e+18</v>
       </c>
@@ -4001,7 +4091,9 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr"/>
+      <c r="A282" t="n">
+        <v>2</v>
+      </c>
       <c r="B282" t="n">
         <v>1.19062820832614e+18</v>
       </c>
@@ -4012,7 +4104,9 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr"/>
+      <c r="A283" t="n">
+        <v>3</v>
+      </c>
       <c r="B283" t="n">
         <v>1.091011207954223e+18</v>
       </c>
@@ -4023,7 +4117,9 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr"/>
+      <c r="A284" t="n">
+        <v>3</v>
+      </c>
       <c r="B284" t="n">
         <v>1.198654552905531e+18</v>
       </c>
@@ -4034,7 +4130,9 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr"/>
+      <c r="A285" t="n">
+        <v>1</v>
+      </c>
       <c r="B285" t="n">
         <v>1.146791255889912e+18</v>
       </c>
@@ -4045,7 +4143,9 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr"/>
+      <c r="A286" t="n">
+        <v>3</v>
+      </c>
       <c r="B286" t="n">
         <v>1.098927988807209e+18</v>
       </c>
@@ -4056,7 +4156,9 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr"/>
+      <c r="A287" t="n">
+        <v>3</v>
+      </c>
       <c r="B287" t="n">
         <v>1.127763429329187e+18</v>
       </c>
@@ -4067,7 +4169,9 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr"/>
+      <c r="A288" t="n">
+        <v>1</v>
+      </c>
       <c r="B288" t="n">
         <v>1.166926871164064e+18</v>
       </c>
@@ -4078,7 +4182,9 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr"/>
+      <c r="A289" t="n">
+        <v>2</v>
+      </c>
       <c r="B289" t="n">
         <v>1.118947958983135e+18</v>
       </c>
@@ -4089,7 +4195,9 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr"/>
+      <c r="A290" t="n">
+        <v>2</v>
+      </c>
       <c r="B290" t="n">
         <v>1.174312298518856e+18</v>
       </c>
@@ -4100,7 +4208,9 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr"/>
+      <c r="A291" t="n">
+        <v>3</v>
+      </c>
       <c r="B291" t="n">
         <v>1.165752041249169e+18</v>
       </c>
@@ -4124,7 +4234,9 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr"/>
+      <c r="A293" t="n">
+        <v>2</v>
+      </c>
       <c r="B293" t="n">
         <v>1.135346199656108e+18</v>
       </c>
@@ -4135,7 +4247,9 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr"/>
+      <c r="A294" t="n">
+        <v>1</v>
+      </c>
       <c r="B294" t="n">
         <v>1.116103487857807e+18</v>
       </c>
@@ -4146,7 +4260,9 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr"/>
+      <c r="A295" t="n">
+        <v>3</v>
+      </c>
       <c r="B295" t="n">
         <v>1.1107121510004e+18</v>
       </c>
@@ -4157,7 +4273,9 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr"/>
+      <c r="A296" t="n">
+        <v>3</v>
+      </c>
       <c r="B296" t="n">
         <v>1.106024816073761e+18</v>
       </c>
@@ -4168,7 +4286,9 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr"/>
+      <c r="A297" t="n">
+        <v>2</v>
+      </c>
       <c r="B297" t="n">
         <v>1.175416011174142e+18</v>
       </c>
@@ -4179,7 +4299,9 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr"/>
+      <c r="A298" t="n">
+        <v>1</v>
+      </c>
       <c r="B298" t="n">
         <v>1.123757729435259e+18</v>
       </c>
@@ -4190,7 +4312,9 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr"/>
+      <c r="A299" t="n">
+        <v>1</v>
+      </c>
       <c r="B299" t="n">
         <v>1.091384963445023e+18</v>
       </c>
@@ -4201,7 +4325,9 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr"/>
+      <c r="A300" t="n">
+        <v>1</v>
+      </c>
       <c r="B300" t="n">
         <v>1.09897192943063e+18</v>
       </c>
@@ -4212,7 +4338,9 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr"/>
+      <c r="A301" t="n">
+        <v>3</v>
+      </c>
       <c r="B301" t="n">
         <v>1.095189125429424e+18</v>
       </c>
@@ -4223,7 +4351,9 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr"/>
+      <c r="A302" t="n">
+        <v>1</v>
+      </c>
       <c r="B302" t="n">
         <v>1.167586710206726e+18</v>
       </c>
@@ -4234,7 +4364,9 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr"/>
+      <c r="A303" t="n">
+        <v>1</v>
+      </c>
       <c r="B303" t="n">
         <v>1.185775542127268e+18</v>
       </c>
@@ -4258,7 +4390,9 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr"/>
+      <c r="A305" t="n">
+        <v>3</v>
+      </c>
       <c r="B305" t="n">
         <v>1.12541278307455e+18</v>
       </c>
@@ -4269,7 +4403,9 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr"/>
+      <c r="A306" t="n">
+        <v>1</v>
+      </c>
       <c r="B306" t="n">
         <v>1.185949145133179e+18</v>
       </c>
@@ -4280,7 +4416,9 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="n">
+        <v>1</v>
+      </c>
       <c r="B307" t="n">
         <v>1.207406935601025e+18</v>
       </c>
@@ -4291,7 +4429,9 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" t="n">
+        <v>1</v>
+      </c>
       <c r="B308" t="n">
         <v>1.19606730912895e+18</v>
       </c>
@@ -4302,7 +4442,9 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr"/>
+      <c r="A309" t="n">
+        <v>2</v>
+      </c>
       <c r="B309" t="n">
         <v>1.184094032852586e+18</v>
       </c>
@@ -4313,7 +4455,9 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr"/>
+      <c r="A310" t="n">
+        <v>3</v>
+      </c>
       <c r="B310" t="n">
         <v>1.146823820554252e+18</v>
       </c>
@@ -4324,7 +4468,9 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr"/>
+      <c r="A311" t="n">
+        <v>1</v>
+      </c>
       <c r="B311" t="n">
         <v>1.144325803657826e+18</v>
       </c>
@@ -4335,7 +4481,9 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr"/>
+      <c r="A312" t="n">
+        <v>3</v>
+      </c>
       <c r="B312" t="n">
         <v>1.080185229200052e+18</v>
       </c>
@@ -4346,7 +4494,9 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
+      <c r="A313" t="n">
+        <v>2</v>
+      </c>
       <c r="B313" t="n">
         <v>1.135221975205392e+18</v>
       </c>
@@ -4357,7 +4507,9 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr"/>
+      <c r="A314" t="n">
+        <v>1</v>
+      </c>
       <c r="B314" t="n">
         <v>1.096136648188969e+18</v>
       </c>
@@ -4368,7 +4520,9 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr"/>
+      <c r="A315" t="n">
+        <v>3</v>
+      </c>
       <c r="B315" t="n">
         <v>1.09257456212086e+18</v>
       </c>
@@ -4379,7 +4533,9 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr"/>
+      <c r="A316" t="n">
+        <v>3</v>
+      </c>
       <c r="B316" t="n">
         <v>1.083514952185512e+18</v>
       </c>
@@ -4390,7 +4546,9 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr"/>
+      <c r="A317" t="n">
+        <v>1</v>
+      </c>
       <c r="B317" t="n">
         <v>1.191817428726092e+18</v>
       </c>
@@ -4401,7 +4559,9 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr"/>
+      <c r="A318" t="n">
+        <v>3</v>
+      </c>
       <c r="B318" t="n">
         <v>1.107355021073699e+18</v>
       </c>
@@ -4412,7 +4572,9 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr"/>
+      <c r="A319" t="n">
+        <v>3</v>
+      </c>
       <c r="B319" t="n">
         <v>1.174148075536998e+18</v>
       </c>
@@ -4423,7 +4585,9 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr"/>
+      <c r="A320" t="n">
+        <v>1</v>
+      </c>
       <c r="B320" t="n">
         <v>1.202034841778377e+18</v>
       </c>
@@ -4434,7 +4598,9 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr"/>
+      <c r="A321" t="n">
+        <v>3</v>
+      </c>
       <c r="B321" t="n">
         <v>1.18668752152424e+18</v>
       </c>
@@ -4445,7 +4611,9 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr"/>
+      <c r="A322" t="n">
+        <v>3</v>
+      </c>
       <c r="B322" t="n">
         <v>1.120315468487823e+18</v>
       </c>
@@ -4456,7 +4624,9 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
+      <c r="A323" t="n">
+        <v>1</v>
+      </c>
       <c r="B323" t="n">
         <v>1.10748721015946e+18</v>
       </c>
@@ -4467,7 +4637,9 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr"/>
+      <c r="A324" t="n">
+        <v>3</v>
+      </c>
       <c r="B324" t="n">
         <v>1.164229192030048e+18</v>
       </c>
@@ -4478,7 +4650,9 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr"/>
+      <c r="A325" t="n">
+        <v>1</v>
+      </c>
       <c r="B325" t="n">
         <v>1.200368438398652e+18</v>
       </c>
@@ -4489,7 +4663,9 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr"/>
+      <c r="A326" t="n">
+        <v>3</v>
+      </c>
       <c r="B326" t="n">
         <v>1.140450392901399e+18</v>
       </c>
@@ -4500,7 +4676,9 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
+      <c r="A327" t="n">
+        <v>3</v>
+      </c>
       <c r="B327" t="n">
         <v>1.175904499334038e+18</v>
       </c>
@@ -4511,7 +4689,9 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
+      <c r="A328" t="n">
+        <v>1</v>
+      </c>
       <c r="B328" t="n">
         <v>1.147725227142636e+18</v>
       </c>
@@ -4522,7 +4702,9 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr"/>
+      <c r="A329" t="n">
+        <v>2</v>
+      </c>
       <c r="B329" t="n">
         <v>1.17150618460545e+18</v>
       </c>
@@ -4546,7 +4728,9 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr"/>
+      <c r="A331" t="n">
+        <v>1</v>
+      </c>
       <c r="B331" t="n">
         <v>1.11238494202828e+18</v>
       </c>
@@ -4557,7 +4741,9 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr"/>
+      <c r="A332" t="n">
+        <v>1</v>
+      </c>
       <c r="B332" t="n">
         <v>1.136233558450815e+18</v>
       </c>
@@ -4568,7 +4754,9 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
+      <c r="A333" t="n">
+        <v>1</v>
+      </c>
       <c r="B333" t="n">
         <v>1.092102881573069e+18</v>
       </c>
@@ -4579,7 +4767,9 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
+      <c r="A334" t="n">
+        <v>3</v>
+      </c>
       <c r="B334" t="n">
         <v>1.127769285315703e+18</v>
       </c>
@@ -4590,7 +4780,9 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
+      <c r="A335" t="n">
+        <v>2</v>
+      </c>
       <c r="B335" t="n">
         <v>1.182234152269226e+18</v>
       </c>
@@ -4601,7 +4793,9 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr"/>
+      <c r="A336" t="n">
+        <v>2</v>
+      </c>
       <c r="B336" t="n">
         <v>1.087138259938038e+18</v>
       </c>
@@ -4612,7 +4806,9 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" t="n">
+        <v>2</v>
+      </c>
       <c r="B337" t="n">
         <v>1.188259868467225e+18</v>
       </c>
@@ -4623,7 +4819,9 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
+      <c r="A338" t="n">
+        <v>2</v>
+      </c>
       <c r="B338" t="n">
         <v>1.085600932681912e+18</v>
       </c>
@@ -4647,7 +4845,9 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr"/>
+      <c r="A340" t="n">
+        <v>3</v>
+      </c>
       <c r="B340" t="n">
         <v>1.10779294135382e+18</v>
       </c>
@@ -4658,7 +4858,9 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr"/>
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
       <c r="B341" t="n">
         <v>1.086241190108893e+18</v>
       </c>
@@ -4669,7 +4871,9 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr"/>
+      <c r="A342" t="n">
+        <v>1</v>
+      </c>
       <c r="B342" t="n">
         <v>1.161319280887108e+18</v>
       </c>
@@ -4680,7 +4884,9 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr"/>
+      <c r="A343" t="n">
+        <v>3</v>
+      </c>
       <c r="B343" t="n">
         <v>1.193221455066141e+18</v>
       </c>
@@ -4704,7 +4910,9 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr"/>
+      <c r="A345" t="n">
+        <v>3</v>
+      </c>
       <c r="B345" t="n">
         <v>1.110889809680232e+18</v>
       </c>
@@ -4715,18 +4923,22 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr"/>
+      <c r="A346" t="n">
+        <v>2</v>
+      </c>
       <c r="B346" t="n">
         <v>1.203714807846842e+18</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t xml:space="preserve">'o suicidio e a forma solene de autoabandono.  mas quem pensa em desistir da vida, na realidade, tem, como ja manifestei em outras oportunidades, fome de viver e de construir pontes para alcancar os outros.'(augusto... </t>
+          <t xml:space="preserve">o suicidio e a forma solene de autoabandono.  mas quem pensa em desistir da vida, na realidade, tem, como ja manifestei em outras oportunidades, fome de viver e de construir pontes para alcancar os outros.'(augusto... </t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr"/>
+      <c r="A347" t="n">
+        <v>1</v>
+      </c>
       <c r="B347" t="n">
         <v>1.105997925912584e+18</v>
       </c>
@@ -4737,7 +4949,9 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr"/>
+      <c r="A348" t="n">
+        <v>3</v>
+      </c>
       <c r="B348" t="n">
         <v>1.098899712302821e+18</v>
       </c>
@@ -4748,7 +4962,9 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr"/>
+      <c r="A349" t="n">
+        <v>1</v>
+      </c>
       <c r="B349" t="n">
         <v>1.100079601756164e+18</v>
       </c>
@@ -4759,7 +4975,9 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr"/>
+      <c r="A350" t="n">
+        <v>1</v>
+      </c>
       <c r="B350" t="n">
         <v>1.099856629896495e+18</v>
       </c>
@@ -4770,7 +4988,9 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr"/>
+      <c r="A351" t="n">
+        <v>3</v>
+      </c>
       <c r="B351" t="n">
         <v>1.089524462326858e+18</v>
       </c>
@@ -4781,7 +5001,9 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr"/>
+      <c r="A352" t="n">
+        <v>1</v>
+      </c>
       <c r="B352" t="n">
         <v>1.183539378188108e+18</v>
       </c>
@@ -4792,7 +5014,9 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr"/>
+      <c r="A353" t="n">
+        <v>1</v>
+      </c>
       <c r="B353" t="n">
         <v>1.153791545780265e+18</v>
       </c>
@@ -4803,7 +5027,9 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr"/>
+      <c r="A354" t="n">
+        <v>2</v>
+      </c>
       <c r="B354" t="n">
         <v>1.107381141475115e+18</v>
       </c>
@@ -4827,7 +5053,9 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr"/>
+      <c r="A356" t="n">
+        <v>3</v>
+      </c>
       <c r="B356" t="n">
         <v>1.181177091271922e+18</v>
       </c>
@@ -4851,7 +5079,9 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr"/>
+      <c r="A358" t="n">
+        <v>2</v>
+      </c>
       <c r="B358" t="n">
         <v>1.186332480485376e+18</v>
       </c>
@@ -4862,7 +5092,9 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr"/>
+      <c r="A359" t="n">
+        <v>3</v>
+      </c>
       <c r="B359" t="n">
         <v>1.1848308684493e+18</v>
       </c>
@@ -4873,7 +5105,9 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr"/>
+      <c r="A360" t="n">
+        <v>3</v>
+      </c>
       <c r="B360" t="n">
         <v>1.082486795626004e+18</v>
       </c>
@@ -4884,7 +5118,9 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr"/>
+      <c r="A361" t="n">
+        <v>1</v>
+      </c>
       <c r="B361" t="n">
         <v>1.194667611101041e+18</v>
       </c>
@@ -4895,7 +5131,9 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
+      <c r="A362" t="n">
+        <v>2</v>
+      </c>
       <c r="B362" t="n">
         <v>1.14153657228798e+18</v>
       </c>
@@ -4906,7 +5144,9 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr"/>
+      <c r="A363" t="n">
+        <v>1</v>
+      </c>
       <c r="B363" t="n">
         <v>1.092826314216743e+18</v>
       </c>
@@ -4917,7 +5157,9 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr"/>
+      <c r="A364" t="n">
+        <v>1</v>
+      </c>
       <c r="B364" t="n">
         <v>1.083803296287154e+18</v>
       </c>
@@ -4928,7 +5170,9 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
+      <c r="A365" t="n">
+        <v>3</v>
+      </c>
       <c r="B365" t="n">
         <v>1.091152858223989e+18</v>
       </c>
@@ -4939,7 +5183,9 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
+      <c r="A366" t="n">
+        <v>2</v>
+      </c>
       <c r="B366" t="n">
         <v>1.186436304856343e+18</v>
       </c>
@@ -4950,7 +5196,9 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr"/>
+      <c r="A367" t="n">
+        <v>2</v>
+      </c>
       <c r="B367" t="n">
         <v>1.098014368950739e+18</v>
       </c>
@@ -4961,7 +5209,9 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr"/>
+      <c r="A368" t="n">
+        <v>1</v>
+      </c>
       <c r="B368" t="n">
         <v>1.115657476324635e+18</v>
       </c>
@@ -4972,7 +5222,9 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
+      <c r="A369" t="n">
+        <v>3</v>
+      </c>
       <c r="B369" t="n">
         <v>1.169697415777137e+18</v>
       </c>
@@ -4983,7 +5235,9 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr"/>
+      <c r="A370" t="n">
+        <v>2</v>
+      </c>
       <c r="B370" t="n">
         <v>1.157456763551191e+18</v>
       </c>
@@ -4994,7 +5248,9 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr"/>
+      <c r="A371" t="n">
+        <v>1</v>
+      </c>
       <c r="B371" t="n">
         <v>1.175267736521511e+18</v>
       </c>
@@ -5005,7 +5261,9 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr"/>
+      <c r="A372" t="n">
+        <v>3</v>
+      </c>
       <c r="B372" t="n">
         <v>1.122310702394413e+18</v>
       </c>
@@ -5016,7 +5274,9 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr"/>
+      <c r="A373" t="n">
+        <v>3</v>
+      </c>
       <c r="B373" t="n">
         <v>1.198242060173746e+18</v>
       </c>
@@ -5027,7 +5287,9 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr"/>
+      <c r="A374" t="n">
+        <v>3</v>
+      </c>
       <c r="B374" t="n">
         <v>1.201606439653052e+18</v>
       </c>
@@ -5038,7 +5300,9 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr"/>
+      <c r="A375" t="n">
+        <v>2</v>
+      </c>
       <c r="B375" t="n">
         <v>1.087792314070778e+18</v>
       </c>
@@ -5049,7 +5313,9 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr"/>
+      <c r="A376" t="n">
+        <v>3</v>
+      </c>
       <c r="B376" t="n">
         <v>1.123630366705713e+18</v>
       </c>
@@ -5060,7 +5326,9 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr"/>
+      <c r="A377" t="n">
+        <v>3</v>
+      </c>
       <c r="B377" t="n">
         <v>1.204868625456419e+18</v>
       </c>
@@ -5071,7 +5339,9 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr"/>
+      <c r="A378" t="n">
+        <v>2</v>
+      </c>
       <c r="B378" t="n">
         <v>1.10076260928716e+18</v>
       </c>
@@ -5082,7 +5352,9 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr"/>
+      <c r="A379" t="n">
+        <v>2</v>
+      </c>
       <c r="B379" t="n">
         <v>1.123670190884049e+18</v>
       </c>
@@ -5093,7 +5365,9 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr"/>
+      <c r="A380" t="n">
+        <v>1</v>
+      </c>
       <c r="B380" t="n">
         <v>1.11438965843005e+18</v>
       </c>
@@ -5104,7 +5378,9 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr"/>
+      <c r="A381" t="n">
+        <v>3</v>
+      </c>
       <c r="B381" t="n">
         <v>1.124027175315943e+18</v>
       </c>
@@ -5115,7 +5391,9 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr"/>
+      <c r="A382" t="n">
+        <v>3</v>
+      </c>
       <c r="B382" t="n">
         <v>1.135282505517535e+18</v>
       </c>
@@ -5126,7 +5404,9 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr"/>
+      <c r="A383" t="n">
+        <v>2</v>
+      </c>
       <c r="B383" t="n">
         <v>1.171497761243419e+18</v>
       </c>
@@ -5137,7 +5417,9 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr"/>
+      <c r="A384" t="n">
+        <v>1</v>
+      </c>
       <c r="B384" t="n">
         <v>1.130132285003637e+18</v>
       </c>
@@ -5148,7 +5430,9 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr"/>
+      <c r="A385" t="n">
+        <v>3</v>
+      </c>
       <c r="B385" t="n">
         <v>1.139034399327101e+18</v>
       </c>
@@ -5159,7 +5443,9 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr"/>
+      <c r="A386" t="n">
+        <v>1</v>
+      </c>
       <c r="B386" t="n">
         <v>1.097488717751693e+18</v>
       </c>
@@ -5170,7 +5456,9 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr"/>
+      <c r="A387" t="n">
+        <v>1</v>
+      </c>
       <c r="B387" t="n">
         <v>1.1733272157167e+18</v>
       </c>
@@ -5181,7 +5469,9 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr"/>
+      <c r="A388" t="n">
+        <v>3</v>
+      </c>
       <c r="B388" t="n">
         <v>1.098792311972983e+18</v>
       </c>
@@ -5192,7 +5482,9 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr"/>
+      <c r="A389" t="n">
+        <v>3</v>
+      </c>
       <c r="B389" t="n">
         <v>1.120816901251326e+18</v>
       </c>
@@ -5203,7 +5495,9 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr"/>
+      <c r="A390" t="n">
+        <v>3</v>
+      </c>
       <c r="B390" t="n">
         <v>1.133491390921486e+18</v>
       </c>
@@ -5214,7 +5508,9 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr"/>
+      <c r="A391" t="n">
+        <v>3</v>
+      </c>
       <c r="B391" t="n">
         <v>1.158579448570175e+18</v>
       </c>
@@ -5225,7 +5521,9 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr"/>
+      <c r="A392" t="n">
+        <v>3</v>
+      </c>
       <c r="B392" t="n">
         <v>1.088555583148642e+18</v>
       </c>
@@ -5236,7 +5534,9 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr"/>
+      <c r="A393" t="n">
+        <v>1</v>
+      </c>
       <c r="B393" t="n">
         <v>1.151168761786974e+18</v>
       </c>
@@ -5247,7 +5547,9 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr"/>
+      <c r="A394" t="n">
+        <v>3</v>
+      </c>
       <c r="B394" t="n">
         <v>1.099878367367758e+18</v>
       </c>
@@ -5258,7 +5560,9 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr"/>
+      <c r="A395" t="n">
+        <v>3</v>
+      </c>
       <c r="B395" t="n">
         <v>1.127777381744296e+18</v>
       </c>
@@ -5269,7 +5573,9 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr"/>
+      <c r="A396" t="n">
+        <v>3</v>
+      </c>
       <c r="B396" t="n">
         <v>1.132865613695717e+18</v>
       </c>
@@ -5293,7 +5599,9 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr"/>
+      <c r="A398" t="n">
+        <v>3</v>
+      </c>
       <c r="B398" t="n">
         <v>1.173014501530243e+18</v>
       </c>
@@ -5304,7 +5612,9 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr"/>
+      <c r="A399" t="n">
+        <v>1</v>
+      </c>
       <c r="B399" t="n">
         <v>1.196503076523381e+18</v>
       </c>
@@ -5315,7 +5625,9 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr"/>
+      <c r="A400" t="n">
+        <v>3</v>
+      </c>
       <c r="B400" t="n">
         <v>1.135460015136006e+18</v>
       </c>
@@ -5326,7 +5638,9 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr"/>
+      <c r="A401" t="n">
+        <v>3</v>
+      </c>
       <c r="B401" t="n">
         <v>1.137566571466035e+18</v>
       </c>
@@ -5337,7 +5651,9 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr"/>
+      <c r="A402" t="n">
+        <v>3</v>
+      </c>
       <c r="B402" t="n">
         <v>1.179111419532517e+18</v>
       </c>
@@ -5348,7 +5664,9 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr"/>
+      <c r="A403" t="n">
+        <v>2</v>
+      </c>
       <c r="B403" t="n">
         <v>1.176301333948899e+18</v>
       </c>
@@ -5359,7 +5677,9 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr"/>
+      <c r="A404" t="n">
+        <v>3</v>
+      </c>
       <c r="B404" t="n">
         <v>1.160220587308044e+18</v>
       </c>
@@ -5370,7 +5690,9 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr"/>
+      <c r="A405" t="n">
+        <v>1</v>
+      </c>
       <c r="B405" t="n">
         <v>1.116879684489425e+18</v>
       </c>
@@ -5381,7 +5703,9 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr"/>
+      <c r="A406" t="n">
+        <v>1</v>
+      </c>
       <c r="B406" t="n">
         <v>1.181034800045609e+18</v>
       </c>
@@ -5392,7 +5716,9 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr"/>
+      <c r="A407" t="n">
+        <v>3</v>
+      </c>
       <c r="B407" t="n">
         <v>1.110128821565616e+18</v>
       </c>
@@ -5403,7 +5729,9 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr"/>
+      <c r="A408" t="n">
+        <v>3</v>
+      </c>
       <c r="B408" t="n">
         <v>1.199362097714467e+18</v>
       </c>
@@ -5414,7 +5742,9 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr"/>
+      <c r="A409" t="n">
+        <v>1</v>
+      </c>
       <c r="B409" t="n">
         <v>1.172678352634831e+18</v>
       </c>
@@ -5425,7 +5755,9 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr"/>
+      <c r="A410" t="n">
+        <v>3</v>
+      </c>
       <c r="B410" t="n">
         <v>1.104808708045984e+18</v>
       </c>
@@ -5436,7 +5768,9 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr"/>
+      <c r="A411" t="n">
+        <v>3</v>
+      </c>
       <c r="B411" t="n">
         <v>1.176122140757778e+18</v>
       </c>
@@ -5447,7 +5781,9 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr"/>
+      <c r="A412" t="n">
+        <v>2</v>
+      </c>
       <c r="B412" t="n">
         <v>1.135975560822305e+18</v>
       </c>
@@ -5458,7 +5794,9 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr"/>
+      <c r="A413" t="n">
+        <v>1</v>
+      </c>
       <c r="B413" t="n">
         <v>1.201945535021756e+18</v>
       </c>
@@ -5469,7 +5807,9 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr"/>
+      <c r="A414" t="n">
+        <v>3</v>
+      </c>
       <c r="B414" t="n">
         <v>1.183848560749613e+18</v>
       </c>
@@ -5480,7 +5820,9 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr"/>
+      <c r="A415" t="n">
+        <v>3</v>
+      </c>
       <c r="B415" t="n">
         <v>1.188406587041432e+18</v>
       </c>
@@ -5504,7 +5846,9 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr"/>
+      <c r="A417" t="n">
+        <v>2</v>
+      </c>
       <c r="B417" t="n">
         <v>1.171602283693511e+18</v>
       </c>
@@ -5515,7 +5859,9 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr"/>
+      <c r="A418" t="n">
+        <v>2</v>
+      </c>
       <c r="B418" t="n">
         <v>1.198628996289901e+18</v>
       </c>
@@ -5526,7 +5872,9 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr"/>
+      <c r="A419" t="n">
+        <v>3</v>
+      </c>
       <c r="B419" t="n">
         <v>1.134594762152059e+18</v>
       </c>
@@ -5537,7 +5885,9 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr"/>
+      <c r="A420" t="n">
+        <v>1</v>
+      </c>
       <c r="B420" t="n">
         <v>1.201662578738582e+18</v>
       </c>
@@ -5548,7 +5898,9 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr"/>
+      <c r="A421" t="n">
+        <v>1</v>
+      </c>
       <c r="B421" t="n">
         <v>1.141951753384079e+18</v>
       </c>
@@ -5559,7 +5911,9 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr"/>
+      <c r="A422" t="n">
+        <v>3</v>
+      </c>
       <c r="B422" t="n">
         <v>1.189365073149596e+18</v>
       </c>
@@ -5570,7 +5924,9 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr"/>
+      <c r="A423" t="n">
+        <v>2</v>
+      </c>
       <c r="B423" t="n">
         <v>1.177000191964189e+18</v>
       </c>
@@ -5581,7 +5937,9 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr"/>
+      <c r="A424" t="n">
+        <v>2</v>
+      </c>
       <c r="B424" t="n">
         <v>1.108772121428267e+18</v>
       </c>
@@ -5592,7 +5950,9 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr"/>
+      <c r="A425" t="n">
+        <v>3</v>
+      </c>
       <c r="B425" t="n">
         <v>1.152395626166071e+18</v>
       </c>
@@ -5603,7 +5963,9 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr"/>
+      <c r="A426" t="n">
+        <v>3</v>
+      </c>
       <c r="B426" t="n">
         <v>1.112254488717525e+18</v>
       </c>
@@ -5627,7 +5989,9 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr"/>
+      <c r="A428" t="n">
+        <v>3</v>
+      </c>
       <c r="B428" t="n">
         <v>1.129047498289504e+18</v>
       </c>
@@ -5638,7 +6002,9 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr"/>
+      <c r="A429" t="n">
+        <v>3</v>
+      </c>
       <c r="B429" t="n">
         <v>1.095296240466751e+18</v>
       </c>
@@ -5649,7 +6015,9 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr"/>
+      <c r="A430" t="n">
+        <v>1</v>
+      </c>
       <c r="B430" t="n">
         <v>1.085581624283156e+18</v>
       </c>
@@ -5660,7 +6028,9 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr"/>
+      <c r="A431" t="n">
+        <v>1</v>
+      </c>
       <c r="B431" t="n">
         <v>1.158571224295006e+18</v>
       </c>
@@ -5671,7 +6041,9 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr"/>
+      <c r="A432" t="n">
+        <v>3</v>
+      </c>
       <c r="B432" t="n">
         <v>1.196601326429508e+18</v>
       </c>
@@ -5682,7 +6054,9 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr"/>
+      <c r="A433" t="n">
+        <v>3</v>
+      </c>
       <c r="B433" t="n">
         <v>1.207129740747977e+18</v>
       </c>
@@ -5693,7 +6067,9 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr"/>
+      <c r="A434" t="n">
+        <v>3</v>
+      </c>
       <c r="B434" t="n">
         <v>1.185328219903406e+18</v>
       </c>
@@ -5704,7 +6080,9 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr"/>
+      <c r="A435" t="n">
+        <v>3</v>
+      </c>
       <c r="B435" t="n">
         <v>1.125895200138826e+18</v>
       </c>
@@ -5715,7 +6093,9 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr"/>
+      <c r="A436" t="n">
+        <v>2</v>
+      </c>
       <c r="B436" t="n">
         <v>1.104487517888356e+18</v>
       </c>
@@ -5726,7 +6106,9 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr"/>
+      <c r="A437" t="n">
+        <v>1</v>
+      </c>
       <c r="B437" t="n">
         <v>1.196886454863053e+18</v>
       </c>
@@ -5737,7 +6119,9 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr"/>
+      <c r="A438" t="n">
+        <v>1</v>
+      </c>
       <c r="B438" t="n">
         <v>1.08995165856444e+18</v>
       </c>
@@ -5748,7 +6132,9 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr"/>
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
       <c r="B439" t="n">
         <v>1.090433522228257e+18</v>
       </c>
@@ -5759,7 +6145,9 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr"/>
+      <c r="A440" t="n">
+        <v>1</v>
+      </c>
       <c r="B440" t="n">
         <v>1.086105563430375e+18</v>
       </c>
@@ -5770,7 +6158,9 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr"/>
+      <c r="A441" t="n">
+        <v>2</v>
+      </c>
       <c r="B441" t="n">
         <v>1.11752916574029e+18</v>
       </c>
@@ -5781,7 +6171,9 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr"/>
+      <c r="A442" t="n">
+        <v>2</v>
+      </c>
       <c r="B442" t="n">
         <v>1.169427700920017e+18</v>
       </c>
@@ -5792,7 +6184,9 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr"/>
+      <c r="A443" t="n">
+        <v>2</v>
+      </c>
       <c r="B443" t="n">
         <v>1.198332230629777e+18</v>
       </c>
@@ -5803,7 +6197,9 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr"/>
+      <c r="A444" t="n">
+        <v>3</v>
+      </c>
       <c r="B444" t="n">
         <v>1.182339925049582e+18</v>
       </c>
@@ -5814,7 +6210,9 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr"/>
+      <c r="A445" t="n">
+        <v>2</v>
+      </c>
       <c r="B445" t="n">
         <v>1.184536482104644e+18</v>
       </c>
@@ -5825,7 +6223,9 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr"/>
+      <c r="A446" t="n">
+        <v>1</v>
+      </c>
       <c r="B446" t="n">
         <v>1.158869321311039e+18</v>
       </c>
@@ -5836,7 +6236,9 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr"/>
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
       <c r="B447" t="n">
         <v>1.195131204858794e+18</v>
       </c>
@@ -5847,7 +6249,9 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr"/>
+      <c r="A448" t="n">
+        <v>1</v>
+      </c>
       <c r="B448" t="n">
         <v>1.11888700326373e+18</v>
       </c>
@@ -5858,7 +6262,9 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr"/>
+      <c r="A449" t="n">
+        <v>1</v>
+      </c>
       <c r="B449" t="n">
         <v>1.1001866352396e+18</v>
       </c>
@@ -5869,7 +6275,9 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr"/>
+      <c r="A450" t="n">
+        <v>1</v>
+      </c>
       <c r="B450" t="n">
         <v>1.129032884604539e+18</v>
       </c>
@@ -5880,7 +6288,9 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr"/>
+      <c r="A451" t="n">
+        <v>3</v>
+      </c>
       <c r="B451" t="n">
         <v>1.183726364526023e+18</v>
       </c>
@@ -5891,7 +6301,9 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr"/>
+      <c r="A452" t="n">
+        <v>3</v>
+      </c>
       <c r="B452" t="n">
         <v>1.101100272678588e+18</v>
       </c>
@@ -5902,7 +6314,9 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr"/>
+      <c r="A453" t="n">
+        <v>2</v>
+      </c>
       <c r="B453" t="n">
         <v>1.153433280768827e+18</v>
       </c>
@@ -5913,7 +6327,9 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr"/>
+      <c r="A454" t="n">
+        <v>1</v>
+      </c>
       <c r="B454" t="n">
         <v>1.111762685757137e+18</v>
       </c>
@@ -5924,7 +6340,9 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr"/>
+      <c r="A455" t="n">
+        <v>1</v>
+      </c>
       <c r="B455" t="n">
         <v>1.196204245529321e+18</v>
       </c>
@@ -5935,7 +6353,9 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr"/>
+      <c r="A456" t="n">
+        <v>1</v>
+      </c>
       <c r="B456" t="n">
         <v>1.173640344262631e+18</v>
       </c>
@@ -5946,7 +6366,9 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr"/>
+      <c r="A457" t="n">
+        <v>2</v>
+      </c>
       <c r="B457" t="n">
         <v>1.106168502493295e+18</v>
       </c>
@@ -5957,7 +6379,9 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr"/>
+      <c r="A458" t="n">
+        <v>1</v>
+      </c>
       <c r="B458" t="n">
         <v>1.108564120889188e+18</v>
       </c>
@@ -5968,7 +6392,9 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr"/>
+      <c r="A459" t="n">
+        <v>3</v>
+      </c>
       <c r="B459" t="n">
         <v>1.135280345685905e+18</v>
       </c>
@@ -5979,7 +6405,9 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr"/>
+      <c r="A460" t="n">
+        <v>2</v>
+      </c>
       <c r="B460" t="n">
         <v>1.168348195639964e+18</v>
       </c>
@@ -5990,7 +6418,9 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr"/>
+      <c r="A461" t="n">
+        <v>3</v>
+      </c>
       <c r="B461" t="n">
         <v>1.172399940795957e+18</v>
       </c>
@@ -6001,7 +6431,9 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
+      <c r="A462" t="n">
+        <v>1</v>
+      </c>
       <c r="B462" t="n">
         <v>1.147571280138396e+18</v>
       </c>
@@ -6012,7 +6444,9 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
+      <c r="A463" t="n">
+        <v>1</v>
+      </c>
       <c r="B463" t="n">
         <v>1.1614776618327e+18</v>
       </c>
@@ -6023,7 +6457,9 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr"/>
+      <c r="A464" t="n">
+        <v>2</v>
+      </c>
       <c r="B464" t="n">
         <v>1.20661570642029e+18</v>
       </c>
@@ -6034,7 +6470,9 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr"/>
+      <c r="A465" t="n">
+        <v>1</v>
+      </c>
       <c r="B465" t="n">
         <v>1.106245981488796e+18</v>
       </c>
@@ -6045,7 +6483,9 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="n">
+        <v>2</v>
+      </c>
       <c r="B466" t="n">
         <v>1.178108654681281e+18</v>
       </c>
@@ -6056,7 +6496,9 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="n">
+        <v>2</v>
+      </c>
       <c r="B467" t="n">
         <v>1.088622906861597e+18</v>
       </c>
@@ -6067,7 +6509,9 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="n">
+        <v>3</v>
+      </c>
       <c r="B468" t="n">
         <v>1.139580841489838e+18</v>
       </c>
@@ -6078,7 +6522,9 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="n">
+        <v>1</v>
+      </c>
       <c r="B469" t="n">
         <v>1.130103520953283e+18</v>
       </c>
@@ -6089,7 +6535,9 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="n">
+        <v>3</v>
+      </c>
       <c r="B470" t="n">
         <v>1.098966591117713e+18</v>
       </c>
@@ -6100,7 +6548,9 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
+      <c r="A471" t="n">
+        <v>1</v>
+      </c>
       <c r="B471" t="n">
         <v>1.191920072295637e+18</v>
       </c>
@@ -6111,7 +6561,9 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr"/>
+      <c r="A472" t="n">
+        <v>3</v>
+      </c>
       <c r="B472" t="n">
         <v>1.102938557654725e+18</v>
       </c>
@@ -6122,7 +6574,9 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr"/>
+      <c r="A473" t="n">
+        <v>1</v>
+      </c>
       <c r="B473" t="n">
         <v>1.174114470857204e+18</v>
       </c>
@@ -6133,7 +6587,9 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr"/>
+      <c r="A474" t="n">
+        <v>1</v>
+      </c>
       <c r="B474" t="n">
         <v>1.144903900346159e+18</v>
       </c>
@@ -6144,7 +6600,9 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr"/>
+      <c r="A475" t="n">
+        <v>3</v>
+      </c>
       <c r="B475" t="n">
         <v>1.160209812866707e+18</v>
       </c>
@@ -6155,7 +6613,9 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="n">
+        <v>1</v>
+      </c>
       <c r="B476" t="n">
         <v>1.183682211247219e+18</v>
       </c>
@@ -6166,7 +6626,9 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="n">
+        <v>2</v>
+      </c>
       <c r="B477" t="n">
         <v>1.083284984042086e+18</v>
       </c>
@@ -6177,7 +6639,9 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="n">
+        <v>3</v>
+      </c>
       <c r="B478" t="n">
         <v>1.09210830993358e+18</v>
       </c>
@@ -6188,7 +6652,9 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="n">
+        <v>3</v>
+      </c>
       <c r="B479" t="n">
         <v>1.116732067369378e+18</v>
       </c>
@@ -6199,7 +6665,9 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="n">
+        <v>2</v>
+      </c>
       <c r="B480" t="n">
         <v>1.144335849162605e+18</v>
       </c>
@@ -6210,7 +6678,9 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="n">
+        <v>3</v>
+      </c>
       <c r="B481" t="n">
         <v>1.187294108668387e+18</v>
       </c>
@@ -6221,7 +6691,9 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr"/>
+      <c r="A482" t="n">
+        <v>2</v>
+      </c>
       <c r="B482" t="n">
         <v>1.146560281029558e+18</v>
       </c>
@@ -6245,7 +6717,9 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr"/>
+      <c r="A484" t="n">
+        <v>1</v>
+      </c>
       <c r="B484" t="n">
         <v>1.149386009764913e+18</v>
       </c>
@@ -6256,7 +6730,9 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="n">
+        <v>2</v>
+      </c>
       <c r="B485" t="n">
         <v>1.170063979487609e+18</v>
       </c>
@@ -6267,7 +6743,9 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="n">
+        <v>1</v>
+      </c>
       <c r="B486" t="n">
         <v>1.162426081238036e+18</v>
       </c>
@@ -6278,7 +6756,9 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr"/>
+      <c r="A487" t="n">
+        <v>1</v>
+      </c>
       <c r="B487" t="n">
         <v>1.156620275569635e+18</v>
       </c>
@@ -6289,7 +6769,9 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr"/>
+      <c r="A488" t="n">
+        <v>2</v>
+      </c>
       <c r="B488" t="n">
         <v>1.171491572740813e+18</v>
       </c>
@@ -6300,7 +6782,9 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr"/>
+      <c r="A489" t="n">
+        <v>2</v>
+      </c>
       <c r="B489" t="n">
         <v>1.175097538426397e+18</v>
       </c>
@@ -6311,7 +6795,9 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr"/>
+      <c r="A490" t="n">
+        <v>3</v>
+      </c>
       <c r="B490" t="n">
         <v>1.194272186430833e+18</v>
       </c>
@@ -6322,7 +6808,9 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr"/>
+      <c r="A491" t="n">
+        <v>3</v>
+      </c>
       <c r="B491" t="n">
         <v>1.119632977691054e+18</v>
       </c>
@@ -6333,7 +6821,9 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr"/>
+      <c r="A492" t="n">
+        <v>2</v>
+      </c>
       <c r="B492" t="n">
         <v>1.121910035351839e+18</v>
       </c>
@@ -6344,7 +6834,9 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr"/>
+      <c r="A493" t="n">
+        <v>1</v>
+      </c>
       <c r="B493" t="n">
         <v>1.084286066255905e+18</v>
       </c>
@@ -6355,7 +6847,9 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr"/>
+      <c r="A494" t="n">
+        <v>1</v>
+      </c>
       <c r="B494" t="n">
         <v>1.086579239187567e+18</v>
       </c>
@@ -6366,7 +6860,9 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr"/>
+      <c r="A495" t="n">
+        <v>3</v>
+      </c>
       <c r="B495" t="n">
         <v>1.174564009460322e+18</v>
       </c>
@@ -6377,7 +6873,9 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr"/>
+      <c r="A496" t="n">
+        <v>2</v>
+      </c>
       <c r="B496" t="n">
         <v>1.11681958244513e+18</v>
       </c>
@@ -6401,7 +6899,9 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr"/>
+      <c r="A498" t="n">
+        <v>1</v>
+      </c>
       <c r="B498" t="n">
         <v>1.176042310397825e+18</v>
       </c>
@@ -6412,7 +6912,9 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr"/>
+      <c r="A499" t="n">
+        <v>3</v>
+      </c>
       <c r="B499" t="n">
         <v>1.139253856011837e+18</v>
       </c>
@@ -6423,7 +6925,9 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="n">
+        <v>3</v>
+      </c>
       <c r="B500" t="n">
         <v>1.14801092897953e+18</v>
       </c>
@@ -6434,7 +6938,9 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="n">
+        <v>2</v>
+      </c>
       <c r="B501" t="n">
         <v>1.116932927403774e+18</v>
       </c>
@@ -6445,7 +6951,9 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="n">
+        <v>3</v>
+      </c>
       <c r="B502" t="n">
         <v>1.126998318637289e+18</v>
       </c>
@@ -6456,7 +6964,9 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="n">
+        <v>3</v>
+      </c>
       <c r="B503" t="n">
         <v>1.149669126799053e+18</v>
       </c>
@@ -6467,7 +6977,9 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="n">
+        <v>3</v>
+      </c>
       <c r="B504" t="n">
         <v>1.209242425916572e+18</v>
       </c>
@@ -6478,7 +6990,9 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr"/>
+      <c r="A505" t="n">
+        <v>3</v>
+      </c>
       <c r="B505" t="n">
         <v>1.177628945606423e+18</v>
       </c>
@@ -6489,7 +7003,9 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr"/>
+      <c r="A506" t="n">
+        <v>3</v>
+      </c>
       <c r="B506" t="n">
         <v>1.128134945086628e+18</v>
       </c>
@@ -6500,7 +7016,9 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr"/>
+      <c r="A507" t="n">
+        <v>3</v>
+      </c>
       <c r="B507" t="n">
         <v>1.184856943598412e+18</v>
       </c>
@@ -6511,7 +7029,9 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr"/>
+      <c r="A508" t="n">
+        <v>3</v>
+      </c>
       <c r="B508" t="n">
         <v>1.172932551914209e+18</v>
       </c>
@@ -6522,7 +7042,9 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
+      <c r="A509" t="n">
+        <v>2</v>
+      </c>
       <c r="B509" t="n">
         <v>1.155823447475393e+18</v>
       </c>
@@ -6533,7 +7055,9 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="n">
+        <v>3</v>
+      </c>
       <c r="B510" t="n">
         <v>1.126180309618262e+18</v>
       </c>
@@ -6544,7 +7068,9 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr"/>
+      <c r="A511" t="n">
+        <v>1</v>
+      </c>
       <c r="B511" t="n">
         <v>1.145887173515842e+18</v>
       </c>
@@ -6555,7 +7081,9 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr"/>
+      <c r="A512" t="n">
+        <v>2</v>
+      </c>
       <c r="B512" t="n">
         <v>1.133496113749742e+18</v>
       </c>
@@ -6566,7 +7094,9 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr"/>
+      <c r="A513" t="n">
+        <v>1</v>
+      </c>
       <c r="B513" t="n">
         <v>1.129534838770479e+18</v>
       </c>
@@ -6577,7 +7107,9 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr"/>
+      <c r="A514" t="n">
+        <v>1</v>
+      </c>
       <c r="B514" t="n">
         <v>1.157822025475547e+18</v>
       </c>
@@ -6588,7 +7120,9 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr"/>
+      <c r="A515" t="n">
+        <v>2</v>
+      </c>
       <c r="B515" t="n">
         <v>1.196904766724542e+18</v>
       </c>
@@ -6599,7 +7133,9 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr"/>
+      <c r="A516" t="n">
+        <v>2</v>
+      </c>
       <c r="B516" t="n">
         <v>1.168382306991641e+18</v>
       </c>
@@ -6610,7 +7146,9 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr"/>
+      <c r="A517" t="n">
+        <v>2</v>
+      </c>
       <c r="B517" t="n">
         <v>1.09537024871331e+18</v>
       </c>
@@ -6621,7 +7159,9 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr"/>
+      <c r="A518" t="n">
+        <v>2</v>
+      </c>
       <c r="B518" t="n">
         <v>1.190080212052173e+18</v>
       </c>
@@ -6632,7 +7172,9 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr"/>
+      <c r="A519" t="n">
+        <v>3</v>
+      </c>
       <c r="B519" t="n">
         <v>1.09146500711893e+18</v>
       </c>
@@ -6643,7 +7185,9 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr"/>
+      <c r="A520" t="n">
+        <v>3</v>
+      </c>
       <c r="B520" t="n">
         <v>1.082389565531455e+18</v>
       </c>
@@ -6654,7 +7198,9 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr"/>
+      <c r="A521" t="n">
+        <v>2</v>
+      </c>
       <c r="B521" t="n">
         <v>1.105854181691322e+18</v>
       </c>
@@ -6665,7 +7211,9 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr"/>
+      <c r="A522" t="n">
+        <v>3</v>
+      </c>
       <c r="B522" t="n">
         <v>1.184195769185821e+18</v>
       </c>
@@ -6676,7 +7224,9 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr"/>
+      <c r="A523" t="n">
+        <v>2</v>
+      </c>
       <c r="B523" t="n">
         <v>1.134982204575142e+18</v>
       </c>
@@ -6687,7 +7237,9 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr"/>
+      <c r="A524" t="n">
+        <v>2</v>
+      </c>
       <c r="B524" t="n">
         <v>1.086053418576347e+18</v>
       </c>
@@ -6698,7 +7250,9 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr"/>
+      <c r="A525" t="n">
+        <v>1</v>
+      </c>
       <c r="B525" t="n">
         <v>1.150972319931798e+18</v>
       </c>
@@ -6709,7 +7263,9 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr"/>
+      <c r="A526" t="n">
+        <v>2</v>
+      </c>
       <c r="B526" t="n">
         <v>1.183690209105498e+18</v>
       </c>
@@ -6720,7 +7276,9 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr"/>
+      <c r="A527" t="n">
+        <v>3</v>
+      </c>
       <c r="B527" t="n">
         <v>1.100763192807092e+18</v>
       </c>
@@ -6731,7 +7289,9 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr"/>
+      <c r="A528" t="n">
+        <v>3</v>
+      </c>
       <c r="B528" t="n">
         <v>1.10437703280334e+18</v>
       </c>
@@ -6742,7 +7302,9 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr"/>
+      <c r="A529" t="n">
+        <v>3</v>
+      </c>
       <c r="B529" t="n">
         <v>1.182327139925987e+18</v>
       </c>
@@ -6753,7 +7315,9 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr"/>
+      <c r="A530" t="n">
+        <v>3</v>
+      </c>
       <c r="B530" t="n">
         <v>1.195722313372705e+18</v>
       </c>
@@ -6764,7 +7328,9 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr"/>
+      <c r="A531" t="n">
+        <v>1</v>
+      </c>
       <c r="B531" t="n">
         <v>1.157364700537151e+18</v>
       </c>
@@ -6775,7 +7341,9 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr"/>
+      <c r="A532" t="n">
+        <v>2</v>
+      </c>
       <c r="B532" t="n">
         <v>1.145057929655214e+18</v>
       </c>
@@ -6786,7 +7354,9 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr"/>
+      <c r="A533" t="n">
+        <v>3</v>
+      </c>
       <c r="B533" t="n">
         <v>1.171595459430892e+18</v>
       </c>
@@ -6810,7 +7380,9 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr"/>
+      <c r="A535" t="n">
+        <v>3</v>
+      </c>
       <c r="B535" t="n">
         <v>1.16214138830739e+18</v>
       </c>
@@ -6834,7 +7406,9 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr"/>
+      <c r="A537" t="n">
+        <v>3</v>
+      </c>
       <c r="B537" t="n">
         <v>1.206031854345892e+18</v>
       </c>
@@ -6845,7 +7419,9 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr"/>
+      <c r="A538" t="n">
+        <v>2</v>
+      </c>
       <c r="B538" t="n">
         <v>1.18862535972352e+18</v>
       </c>
@@ -6856,7 +7432,9 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr"/>
+      <c r="A539" t="n">
+        <v>1</v>
+      </c>
       <c r="B539" t="n">
         <v>1.125527674984772e+18</v>
       </c>
@@ -6867,7 +7445,9 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr"/>
+      <c r="A540" t="n">
+        <v>3</v>
+      </c>
       <c r="B540" t="n">
         <v>1.167318060245479e+18</v>
       </c>
@@ -6878,7 +7458,9 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr"/>
+      <c r="A541" t="n">
+        <v>1</v>
+      </c>
       <c r="B541" t="n">
         <v>1.143447068352098e+18</v>
       </c>
@@ -6889,7 +7471,9 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr"/>
+      <c r="A542" t="n">
+        <v>1</v>
+      </c>
       <c r="B542" t="n">
         <v>1.197000256065552e+18</v>
       </c>
@@ -6900,7 +7484,9 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
+      <c r="A543" t="n">
+        <v>1</v>
+      </c>
       <c r="B543" t="n">
         <v>1.08711521919164e+18</v>
       </c>
@@ -6911,7 +7497,9 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="n">
+        <v>1</v>
+      </c>
       <c r="B544" t="n">
         <v>1.167038197022581e+18</v>
       </c>
@@ -6922,7 +7510,9 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="inlineStr"/>
+      <c r="A545" t="n">
+        <v>3</v>
+      </c>
       <c r="B545" t="n">
         <v>1.178633959951012e+18</v>
       </c>
@@ -6933,7 +7523,9 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr"/>
+      <c r="A546" t="n">
+        <v>3</v>
+      </c>
       <c r="B546" t="n">
         <v>1.08311941972589e+18</v>
       </c>
@@ -6944,7 +7536,9 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr"/>
+      <c r="A547" t="n">
+        <v>2</v>
+      </c>
       <c r="B547" t="n">
         <v>1.173663936660591e+18</v>
       </c>
@@ -6955,7 +7549,9 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr"/>
+      <c r="A548" t="n">
+        <v>3</v>
+      </c>
       <c r="B548" t="n">
         <v>1.108936553944867e+18</v>
       </c>
@@ -6966,7 +7562,9 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="inlineStr"/>
+      <c r="A549" t="n">
+        <v>3</v>
+      </c>
       <c r="B549" t="n">
         <v>1.120202454317052e+18</v>
       </c>
@@ -6977,7 +7575,9 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr"/>
+      <c r="A550" t="n">
+        <v>2</v>
+      </c>
       <c r="B550" t="n">
         <v>1.197229256365007e+18</v>
       </c>
@@ -6988,7 +7588,9 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr"/>
+      <c r="A551" t="n">
+        <v>3</v>
+      </c>
       <c r="B551" t="n">
         <v>1.086669619195142e+18</v>
       </c>
@@ -6999,7 +7601,9 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr"/>
+      <c r="A552" t="n">
+        <v>3</v>
+      </c>
       <c r="B552" t="n">
         <v>1.171442520003207e+18</v>
       </c>
@@ -7010,7 +7614,9 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr"/>
+      <c r="A553" t="n">
+        <v>3</v>
+      </c>
       <c r="B553" t="n">
         <v>1.210535077643457e+18</v>
       </c>
@@ -7021,7 +7627,9 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr"/>
+      <c r="A554" t="n">
+        <v>3</v>
+      </c>
       <c r="B554" t="n">
         <v>1.10589013809213e+18</v>
       </c>
@@ -7032,7 +7640,9 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr"/>
+      <c r="A555" t="n">
+        <v>3</v>
+      </c>
       <c r="B555" t="n">
         <v>1.099658715706393e+18</v>
       </c>
@@ -7056,7 +7666,9 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr"/>
+      <c r="A557" t="n">
+        <v>3</v>
+      </c>
       <c r="B557" t="n">
         <v>1.201262166906569e+18</v>
       </c>
@@ -7067,7 +7679,9 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr"/>
+      <c r="A558" t="n">
+        <v>3</v>
+      </c>
       <c r="B558" t="n">
         <v>1.203288459877736e+18</v>
       </c>
@@ -7078,7 +7692,9 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr"/>
+      <c r="A559" t="n">
+        <v>3</v>
+      </c>
       <c r="B559" t="n">
         <v>1.15299409930326e+18</v>
       </c>
@@ -7089,7 +7705,9 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr"/>
+      <c r="A560" t="n">
+        <v>2</v>
+      </c>
       <c r="B560" t="n">
         <v>1.136222982345376e+18</v>
       </c>
@@ -7100,7 +7718,9 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr"/>
+      <c r="A561" t="n">
+        <v>3</v>
+      </c>
       <c r="B561" t="n">
         <v>1.12956678941805e+18</v>
       </c>
@@ -7111,7 +7731,9 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr"/>
+      <c r="A562" t="n">
+        <v>1</v>
+      </c>
       <c r="B562" t="n">
         <v>1.105434270519173e+18</v>
       </c>
@@ -7122,7 +7744,9 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr"/>
+      <c r="A563" t="n">
+        <v>3</v>
+      </c>
       <c r="B563" t="n">
         <v>1.146780025255055e+18</v>
       </c>
@@ -7133,7 +7757,9 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr"/>
+      <c r="A564" t="n">
+        <v>3</v>
+      </c>
       <c r="B564" t="n">
         <v>1.151122117162934e+18</v>
       </c>
@@ -7144,7 +7770,9 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr"/>
+      <c r="A565" t="n">
+        <v>2</v>
+      </c>
       <c r="B565" t="n">
         <v>1.200917926221615e+18</v>
       </c>
@@ -7155,7 +7783,9 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr"/>
+      <c r="A566" t="n">
+        <v>3</v>
+      </c>
       <c r="B566" t="n">
         <v>1.113550505794593e+18</v>
       </c>
@@ -7166,7 +7796,9 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr"/>
+      <c r="A567" t="n">
+        <v>2</v>
+      </c>
       <c r="B567" t="n">
         <v>1.177255493573779e+18</v>
       </c>
@@ -7177,7 +7809,9 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr"/>
+      <c r="A568" t="n">
+        <v>3</v>
+      </c>
       <c r="B568" t="n">
         <v>1.176590012261028e+18</v>
       </c>
@@ -7188,7 +7822,9 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr"/>
+      <c r="A569" t="n">
+        <v>1</v>
+      </c>
       <c r="B569" t="n">
         <v>1.14575542528086e+18</v>
       </c>
@@ -7212,7 +7848,9 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr"/>
+      <c r="A571" t="n">
+        <v>3</v>
+      </c>
       <c r="B571" t="n">
         <v>1.148326594328629e+18</v>
       </c>
@@ -7223,7 +7861,9 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr"/>
+      <c r="A572" t="n">
+        <v>1</v>
+      </c>
       <c r="B572" t="n">
         <v>1.19864465759035e+18</v>
       </c>
@@ -7234,7 +7874,9 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr"/>
+      <c r="A573" t="n">
+        <v>3</v>
+      </c>
       <c r="B573" t="n">
         <v>1.11521034915693e+18</v>
       </c>
@@ -7245,7 +7887,9 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr"/>
+      <c r="A574" t="n">
+        <v>3</v>
+      </c>
       <c r="B574" t="n">
         <v>1.158514278976111e+18</v>
       </c>
@@ -7256,7 +7900,9 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr"/>
+      <c r="A575" t="n">
+        <v>3</v>
+      </c>
       <c r="B575" t="n">
         <v>1.088239286611263e+18</v>
       </c>
@@ -7267,7 +7913,9 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr"/>
+      <c r="A576" t="n">
+        <v>3</v>
+      </c>
       <c r="B576" t="n">
         <v>1.209094589841334e+18</v>
       </c>
@@ -7278,7 +7926,9 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr"/>
+      <c r="A577" t="n">
+        <v>3</v>
+      </c>
       <c r="B577" t="n">
         <v>1.159527477120815e+18</v>
       </c>
@@ -7289,7 +7939,9 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr"/>
+      <c r="A578" t="n">
+        <v>3</v>
+      </c>
       <c r="B578" t="n">
         <v>1.105922502608458e+18</v>
       </c>
@@ -7300,7 +7952,9 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr"/>
+      <c r="A579" t="n">
+        <v>1</v>
+      </c>
       <c r="B579" t="n">
         <v>1.166301584378274e+18</v>
       </c>
@@ -7311,7 +7965,9 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr"/>
+      <c r="A580" t="n">
+        <v>3</v>
+      </c>
       <c r="B580" t="n">
         <v>1.175352359809106e+18</v>
       </c>
@@ -7322,7 +7978,9 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr"/>
+      <c r="A581" t="n">
+        <v>3</v>
+      </c>
       <c r="B581" t="n">
         <v>1.085112549232787e+18</v>
       </c>
@@ -7333,7 +7991,9 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="inlineStr"/>
+      <c r="A582" t="n">
+        <v>3</v>
+      </c>
       <c r="B582" t="n">
         <v>1.097144752871539e+18</v>
       </c>
@@ -7344,7 +8004,9 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr"/>
+      <c r="A583" t="n">
+        <v>3</v>
+      </c>
       <c r="B583" t="n">
         <v>1.111047966524084e+18</v>
       </c>
@@ -7355,7 +8017,9 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr"/>
+      <c r="A584" t="n">
+        <v>3</v>
+      </c>
       <c r="B584" t="n">
         <v>1.118968147158229e+18</v>
       </c>
@@ -7366,7 +8030,9 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr"/>
+      <c r="A585" t="n">
+        <v>1</v>
+      </c>
       <c r="B585" t="n">
         <v>1.177702560511255e+18</v>
       </c>
@@ -7377,7 +8043,9 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr"/>
+      <c r="A586" t="n">
+        <v>3</v>
+      </c>
       <c r="B586" t="n">
         <v>1.115095376082735e+18</v>
       </c>
@@ -7388,7 +8056,9 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr"/>
+      <c r="A587" t="n">
+        <v>3</v>
+      </c>
       <c r="B587" t="n">
         <v>1.09310315021355e+18</v>
       </c>
@@ -7399,7 +8069,9 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr"/>
+      <c r="A588" t="n">
+        <v>3</v>
+      </c>
       <c r="B588" t="n">
         <v>1.092166342835429e+18</v>
       </c>
@@ -7410,7 +8082,9 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr"/>
+      <c r="A589" t="n">
+        <v>3</v>
+      </c>
       <c r="B589" t="n">
         <v>1.131016695018078e+18</v>
       </c>
@@ -7421,7 +8095,9 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr"/>
+      <c r="A590" t="n">
+        <v>2</v>
+      </c>
       <c r="B590" t="n">
         <v>1.168695974811906e+18</v>
       </c>
@@ -7432,7 +8108,9 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr"/>
+      <c r="A591" t="n">
+        <v>2</v>
+      </c>
       <c r="B591" t="n">
         <v>1.12463118902381e+18</v>
       </c>
@@ -7443,7 +8121,9 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr"/>
+      <c r="A592" t="n">
+        <v>1</v>
+      </c>
       <c r="B592" t="n">
         <v>1.103796541628781e+18</v>
       </c>
@@ -7454,7 +8134,9 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr"/>
+      <c r="A593" t="n">
+        <v>3</v>
+      </c>
       <c r="B593" t="n">
         <v>1.124017479372689e+18</v>
       </c>
@@ -7465,7 +8147,9 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr"/>
+      <c r="A594" t="n">
+        <v>3</v>
+      </c>
       <c r="B594" t="n">
         <v>1.19005239309604e+18</v>
       </c>
@@ -7476,7 +8160,9 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="inlineStr"/>
+      <c r="A595" t="n">
+        <v>3</v>
+      </c>
       <c r="B595" t="n">
         <v>1.172225947443114e+18</v>
       </c>
@@ -7487,7 +8173,9 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr"/>
+      <c r="A596" t="n">
+        <v>3</v>
+      </c>
       <c r="B596" t="n">
         <v>1.143209497541919e+18</v>
       </c>
@@ -7498,7 +8186,9 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="inlineStr"/>
+      <c r="A597" t="n">
+        <v>3</v>
+      </c>
       <c r="B597" t="n">
         <v>1.164682265231811e+18</v>
       </c>
@@ -7509,7 +8199,9 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="inlineStr"/>
+      <c r="A598" t="n">
+        <v>3</v>
+      </c>
       <c r="B598" t="n">
         <v>1.201849543333163e+18</v>
       </c>
@@ -7533,7 +8225,9 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" t="inlineStr"/>
+      <c r="A600" t="n">
+        <v>2</v>
+      </c>
       <c r="B600" t="n">
         <v>1.106174071916687e+18</v>
       </c>
@@ -7544,7 +8238,9 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr"/>
+      <c r="A601" t="n">
+        <v>1</v>
+      </c>
       <c r="B601" t="n">
         <v>1.159663016197206e+18</v>
       </c>
@@ -7568,7 +8264,9 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" t="inlineStr"/>
+      <c r="A603" t="n">
+        <v>2</v>
+      </c>
       <c r="B603" t="n">
         <v>1.092079274507538e+18</v>
       </c>
@@ -7579,7 +8277,9 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" t="inlineStr"/>
+      <c r="A604" t="n">
+        <v>3</v>
+      </c>
       <c r="B604" t="n">
         <v>1.114069687082656e+18</v>
       </c>
@@ -7590,7 +8290,9 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="inlineStr"/>
+      <c r="A605" t="n">
+        <v>3</v>
+      </c>
       <c r="B605" t="n">
         <v>1.104114115864379e+18</v>
       </c>
@@ -7601,7 +8303,9 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" t="inlineStr"/>
+      <c r="A606" t="n">
+        <v>3</v>
+      </c>
       <c r="B606" t="n">
         <v>1.176333664017367e+18</v>
       </c>
@@ -7612,7 +8316,9 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" t="inlineStr"/>
+      <c r="A607" t="n">
+        <v>1</v>
+      </c>
       <c r="B607" t="n">
         <v>1.092890517711532e+18</v>
       </c>
@@ -7623,7 +8329,9 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" t="inlineStr"/>
+      <c r="A608" t="n">
+        <v>3</v>
+      </c>
       <c r="B608" t="n">
         <v>1.168556030952956e+18</v>
       </c>
@@ -7634,7 +8342,9 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="inlineStr"/>
+      <c r="A609" t="n">
+        <v>3</v>
+      </c>
       <c r="B609" t="n">
         <v>1.144774924701241e+18</v>
       </c>
@@ -7645,7 +8355,9 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="inlineStr"/>
+      <c r="A610" t="n">
+        <v>3</v>
+      </c>
       <c r="B610" t="n">
         <v>1.15227952352374e+18</v>
       </c>
@@ -7669,7 +8381,9 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" t="inlineStr"/>
+      <c r="A612" t="n">
+        <v>3</v>
+      </c>
       <c r="B612" t="n">
         <v>1.185171206221246e+18</v>
       </c>
@@ -7680,7 +8394,9 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" t="inlineStr"/>
+      <c r="A613" t="n">
+        <v>3</v>
+      </c>
       <c r="B613" t="n">
         <v>1.098662117832622e+18</v>
       </c>
@@ -7691,7 +8407,9 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" t="inlineStr"/>
+      <c r="A614" t="n">
+        <v>2</v>
+      </c>
       <c r="B614" t="n">
         <v>1.196170700823974e+18</v>
       </c>
@@ -7702,7 +8420,9 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" t="inlineStr"/>
+      <c r="A615" t="n">
+        <v>3</v>
+      </c>
       <c r="B615" t="n">
         <v>1.119991104735195e+18</v>
       </c>
@@ -7713,7 +8433,9 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="inlineStr"/>
+      <c r="A616" t="n">
+        <v>3</v>
+      </c>
       <c r="B616" t="n">
         <v>1.080259961647706e+18</v>
       </c>
@@ -7724,7 +8446,9 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" t="inlineStr"/>
+      <c r="A617" t="n">
+        <v>3</v>
+      </c>
       <c r="B617" t="n">
         <v>1.194571715097043e+18</v>
       </c>
@@ -7735,7 +8459,9 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" t="inlineStr"/>
+      <c r="A618" t="n">
+        <v>2</v>
+      </c>
       <c r="B618" t="n">
         <v>1.17245410524101e+18</v>
       </c>
@@ -7746,7 +8472,9 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" t="inlineStr"/>
+      <c r="A619" t="n">
+        <v>1</v>
+      </c>
       <c r="B619" t="n">
         <v>1.09620219081601e+18</v>
       </c>
@@ -7757,7 +8485,9 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" t="inlineStr"/>
+      <c r="A620" t="n">
+        <v>1</v>
+      </c>
       <c r="B620" t="n">
         <v>1.13352651212322e+18</v>
       </c>
@@ -7768,7 +8498,9 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" t="inlineStr"/>
+      <c r="A621" t="n">
+        <v>2</v>
+      </c>
       <c r="B621" t="n">
         <v>1.192576588719755e+18</v>
       </c>
@@ -7779,7 +8511,9 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" t="inlineStr"/>
+      <c r="A622" t="n">
+        <v>3</v>
+      </c>
       <c r="B622" t="n">
         <v>1.197557712932e+18</v>
       </c>
@@ -7790,7 +8524,9 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" t="inlineStr"/>
+      <c r="A623" t="n">
+        <v>3</v>
+      </c>
       <c r="B623" t="n">
         <v>1.18814072916147e+18</v>
       </c>
@@ -7801,7 +8537,9 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" t="inlineStr"/>
+      <c r="A624" t="n">
+        <v>1</v>
+      </c>
       <c r="B624" t="n">
         <v>1.176527108304249e+18</v>
       </c>
@@ -7812,7 +8550,9 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="inlineStr"/>
+      <c r="A625" t="n">
+        <v>3</v>
+      </c>
       <c r="B625" t="n">
         <v>1.086068872539599e+18</v>
       </c>
@@ -7823,7 +8563,9 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" t="inlineStr"/>
+      <c r="A626" t="n">
+        <v>3</v>
+      </c>
       <c r="B626" t="n">
         <v>1.125873746143777e+18</v>
       </c>
@@ -7834,7 +8576,9 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" t="inlineStr"/>
+      <c r="A627" t="n">
+        <v>3</v>
+      </c>
       <c r="B627" t="n">
         <v>1.153068867842912e+18</v>
       </c>
@@ -7845,7 +8589,9 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" t="inlineStr"/>
+      <c r="A628" t="n">
+        <v>3</v>
+      </c>
       <c r="B628" t="n">
         <v>1.12623468147157e+18</v>
       </c>
@@ -7856,7 +8602,9 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="inlineStr"/>
+      <c r="A629" t="n">
+        <v>3</v>
+      </c>
       <c r="B629" t="n">
         <v>1.086654607491764e+18</v>
       </c>
@@ -7867,7 +8615,9 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" t="inlineStr"/>
+      <c r="A630" t="n">
+        <v>2</v>
+      </c>
       <c r="B630" t="n">
         <v>1.163841173104026e+18</v>
       </c>
@@ -7878,7 +8628,9 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr"/>
+      <c r="A631" t="n">
+        <v>2</v>
+      </c>
       <c r="B631" t="n">
         <v>1.122726986760245e+18</v>
       </c>
@@ -7889,7 +8641,9 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr"/>
+      <c r="A632" t="n">
+        <v>3</v>
+      </c>
       <c r="B632" t="n">
         <v>1.135276577065984e+18</v>
       </c>
@@ -7900,7 +8654,9 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr"/>
+      <c r="A633" t="n">
+        <v>1</v>
+      </c>
       <c r="B633" t="n">
         <v>1.161435231271948e+18</v>
       </c>
@@ -7911,7 +8667,9 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr"/>
+      <c r="A634" t="n">
+        <v>1</v>
+      </c>
       <c r="B634" t="n">
         <v>1.135316756057272e+18</v>
       </c>
@@ -7922,7 +8680,9 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" t="inlineStr"/>
+      <c r="A635" t="n">
+        <v>2</v>
+      </c>
       <c r="B635" t="n">
         <v>1.150917244446114e+18</v>
       </c>
@@ -7933,7 +8693,9 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" t="inlineStr"/>
+      <c r="A636" t="n">
+        <v>1</v>
+      </c>
       <c r="B636" t="n">
         <v>1.209660078980321e+18</v>
       </c>
@@ -7944,7 +8706,9 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="inlineStr"/>
+      <c r="A637" t="n">
+        <v>3</v>
+      </c>
       <c r="B637" t="n">
         <v>1.132054188660318e+18</v>
       </c>
@@ -7955,7 +8719,9 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" t="inlineStr"/>
+      <c r="A638" t="n">
+        <v>3</v>
+      </c>
       <c r="B638" t="n">
         <v>1.130265646544171e+18</v>
       </c>
@@ -7966,7 +8732,9 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" t="inlineStr"/>
+      <c r="A639" t="n">
+        <v>3</v>
+      </c>
       <c r="B639" t="n">
         <v>1.140813481823875e+18</v>
       </c>
@@ -7977,7 +8745,9 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" t="inlineStr"/>
+      <c r="A640" t="n">
+        <v>1</v>
+      </c>
       <c r="B640" t="n">
         <v>1.154938767855239e+18</v>
       </c>
@@ -7988,7 +8758,9 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr"/>
+      <c r="A641" t="n">
+        <v>1</v>
+      </c>
       <c r="B641" t="n">
         <v>1.148593845724156e+18</v>
       </c>
@@ -7999,7 +8771,9 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr"/>
+      <c r="A642" t="n">
+        <v>1</v>
+      </c>
       <c r="B642" t="n">
         <v>1.188653667685229e+18</v>
       </c>
@@ -8010,7 +8784,9 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr"/>
+      <c r="A643" t="n">
+        <v>2</v>
+      </c>
       <c r="B643" t="n">
         <v>1.184655295101964e+18</v>
       </c>
@@ -8021,7 +8797,9 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr"/>
+      <c r="A644" t="n">
+        <v>3</v>
+      </c>
       <c r="B644" t="n">
         <v>1.192220604600144e+18</v>
       </c>
@@ -8032,7 +8810,9 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr"/>
+      <c r="A645" t="n">
+        <v>2</v>
+      </c>
       <c r="B645" t="n">
         <v>1.210769030845325e+18</v>
       </c>
@@ -8043,7 +8823,9 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" t="inlineStr"/>
+      <c r="A646" t="n">
+        <v>1</v>
+      </c>
       <c r="B646" t="n">
         <v>1.089566600674636e+18</v>
       </c>
@@ -8054,7 +8836,9 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr"/>
+      <c r="A647" t="n">
+        <v>3</v>
+      </c>
       <c r="B647" t="n">
         <v>1.194770325029949e+18</v>
       </c>
@@ -8065,7 +8849,9 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr"/>
+      <c r="A648" t="n">
+        <v>3</v>
+      </c>
       <c r="B648" t="n">
         <v>1.192193656268214e+18</v>
       </c>
@@ -8076,7 +8862,9 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr"/>
+      <c r="A649" t="n">
+        <v>3</v>
+      </c>
       <c r="B649" t="n">
         <v>1.194548051312034e+18</v>
       </c>
@@ -8087,7 +8875,9 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" t="inlineStr"/>
+      <c r="A650" t="n">
+        <v>3</v>
+      </c>
       <c r="B650" t="n">
         <v>1.145442011165659e+18</v>
       </c>
@@ -8098,7 +8888,9 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" t="inlineStr"/>
+      <c r="A651" t="n">
+        <v>3</v>
+      </c>
       <c r="B651" t="n">
         <v>1.189583299645268e+18</v>
       </c>
@@ -8109,7 +8901,9 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" t="inlineStr"/>
+      <c r="A652" t="n">
+        <v>1</v>
+      </c>
       <c r="B652" t="n">
         <v>1.119770839551967e+18</v>
       </c>
@@ -8120,7 +8914,9 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" t="inlineStr"/>
+      <c r="A653" t="n">
+        <v>3</v>
+      </c>
       <c r="B653" t="n">
         <v>1.146831442581905e+18</v>
       </c>
@@ -8131,7 +8927,9 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="inlineStr"/>
+      <c r="A654" t="n">
+        <v>1</v>
+      </c>
       <c r="B654" t="n">
         <v>1.115928663592251e+18</v>
       </c>
@@ -8142,7 +8940,9 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="inlineStr"/>
+      <c r="A655" t="n">
+        <v>3</v>
+      </c>
       <c r="B655" t="n">
         <v>1.165392931278209e+18</v>
       </c>
@@ -8153,7 +8953,9 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" t="inlineStr"/>
+      <c r="A656" t="n">
+        <v>3</v>
+      </c>
       <c r="B656" t="n">
         <v>1.191893806792217e+18</v>
       </c>
@@ -8164,7 +8966,9 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" t="inlineStr"/>
+      <c r="A657" t="n">
+        <v>2</v>
+      </c>
       <c r="B657" t="n">
         <v>1.189316761147056e+18</v>
       </c>
@@ -8175,7 +8979,9 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" t="inlineStr"/>
+      <c r="A658" t="n">
+        <v>1</v>
+      </c>
       <c r="B658" t="n">
         <v>1.155951226451665e+18</v>
       </c>
@@ -8186,7 +8992,9 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" t="inlineStr"/>
+      <c r="A659" t="n">
+        <v>3</v>
+      </c>
       <c r="B659" t="n">
         <v>1.122522824768393e+18</v>
       </c>
@@ -8197,7 +9005,9 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" t="inlineStr"/>
+      <c r="A660" t="n">
+        <v>3</v>
+      </c>
       <c r="B660" t="n">
         <v>1.196820234411348e+18</v>
       </c>
@@ -8208,7 +9018,9 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" t="inlineStr"/>
+      <c r="A661" t="n">
+        <v>1</v>
+      </c>
       <c r="B661" t="n">
         <v>1.163631432562106e+18</v>
       </c>
@@ -8219,7 +9031,9 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="inlineStr"/>
+      <c r="A662" t="n">
+        <v>3</v>
+      </c>
       <c r="B662" t="n">
         <v>1.110327391551975e+18</v>
       </c>
@@ -8230,7 +9044,9 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" t="inlineStr"/>
+      <c r="A663" t="n">
+        <v>3</v>
+      </c>
       <c r="B663" t="n">
         <v>1.085930546579075e+18</v>
       </c>
@@ -8241,7 +9057,9 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr"/>
+      <c r="A664" t="n">
+        <v>2</v>
+      </c>
       <c r="B664" t="n">
         <v>1.141502576640385e+18</v>
       </c>
@@ -8252,7 +9070,9 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="inlineStr"/>
+      <c r="A665" t="n">
+        <v>1</v>
+      </c>
       <c r="B665" t="n">
         <v>1.094120314727027e+18</v>
       </c>
@@ -8263,7 +9083,9 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="inlineStr"/>
+      <c r="A666" t="n">
+        <v>2</v>
+      </c>
       <c r="B666" t="n">
         <v>1.194815670497808e+18</v>
       </c>
@@ -8274,7 +9096,9 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" t="inlineStr"/>
+      <c r="A667" t="n">
+        <v>3</v>
+      </c>
       <c r="B667" t="n">
         <v>1.12140303673011e+18</v>
       </c>
@@ -8285,7 +9109,9 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" t="inlineStr"/>
+      <c r="A668" t="n">
+        <v>3</v>
+      </c>
       <c r="B668" t="n">
         <v>1.08050184957116e+18</v>
       </c>
@@ -8296,7 +9122,9 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" t="inlineStr"/>
+      <c r="A669" t="n">
+        <v>3</v>
+      </c>
       <c r="B669" t="n">
         <v>1.131171110286971e+18</v>
       </c>
@@ -8307,7 +9135,9 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="inlineStr"/>
+      <c r="A670" t="n">
+        <v>3</v>
+      </c>
       <c r="B670" t="n">
         <v>1.174870650105881e+18</v>
       </c>
@@ -8318,7 +9148,9 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr"/>
+      <c r="A671" t="n">
+        <v>3</v>
+      </c>
       <c r="B671" t="n">
         <v>1.167274160810279e+18</v>
       </c>
@@ -8329,7 +9161,9 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr"/>
+      <c r="A672" t="n">
+        <v>3</v>
+      </c>
       <c r="B672" t="n">
         <v>1.186600916042031e+18</v>
       </c>
@@ -8340,7 +9174,9 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr"/>
+      <c r="A673" t="n">
+        <v>3</v>
+      </c>
       <c r="B673" t="n">
         <v>1.098632183944749e+18</v>
       </c>
@@ -8351,7 +9187,9 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr"/>
+      <c r="A674" t="n">
+        <v>3</v>
+      </c>
       <c r="B674" t="n">
         <v>1.181972314323374e+18</v>
       </c>
@@ -8362,7 +9200,9 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr"/>
+      <c r="A675" t="n">
+        <v>2</v>
+      </c>
       <c r="B675" t="n">
         <v>1.168462836324098e+18</v>
       </c>
@@ -8373,7 +9213,9 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr"/>
+      <c r="A676" t="n">
+        <v>3</v>
+      </c>
       <c r="B676" t="n">
         <v>1.178503687762784e+18</v>
       </c>
@@ -8384,7 +9226,9 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr"/>
+      <c r="A677" t="n">
+        <v>3</v>
+      </c>
       <c r="B677" t="n">
         <v>1.13533003204864e+18</v>
       </c>
@@ -8395,7 +9239,9 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr"/>
+      <c r="A678" t="n">
+        <v>2</v>
+      </c>
       <c r="B678" t="n">
         <v>1.175939896575431e+18</v>
       </c>
@@ -8406,7 +9252,9 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" t="inlineStr"/>
+      <c r="A679" t="n">
+        <v>3</v>
+      </c>
       <c r="B679" t="n">
         <v>1.086836862994534e+18</v>
       </c>
@@ -8417,7 +9265,9 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" t="inlineStr"/>
+      <c r="A680" t="n">
+        <v>2</v>
+      </c>
       <c r="B680" t="n">
         <v>1.121358697341563e+18</v>
       </c>
@@ -8428,7 +9278,9 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr"/>
+      <c r="A681" t="n">
+        <v>1</v>
+      </c>
       <c r="B681" t="n">
         <v>1.159252226659037e+18</v>
       </c>
@@ -8439,7 +9291,9 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr"/>
+      <c r="A682" t="n">
+        <v>3</v>
+      </c>
       <c r="B682" t="n">
         <v>1.201942722246001e+18</v>
       </c>
@@ -8450,7 +9304,9 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr"/>
+      <c r="A683" t="n">
+        <v>3</v>
+      </c>
       <c r="B683" t="n">
         <v>1.184979770381099e+18</v>
       </c>
@@ -8461,7 +9317,9 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr"/>
+      <c r="A684" t="n">
+        <v>3</v>
+      </c>
       <c r="B684" t="n">
         <v>1.091529239063613e+18</v>
       </c>
@@ -8472,7 +9330,9 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr"/>
+      <c r="A685" t="n">
+        <v>2</v>
+      </c>
       <c r="B685" t="n">
         <v>1.177194909427802e+18</v>
       </c>
@@ -8483,7 +9343,9 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr"/>
+      <c r="A686" t="n">
+        <v>1</v>
+      </c>
       <c r="B686" t="n">
         <v>1.096591837001847e+18</v>
       </c>
@@ -8494,7 +9356,9 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr"/>
+      <c r="A687" t="n">
+        <v>3</v>
+      </c>
       <c r="B687" t="n">
         <v>1.080992807614071e+18</v>
       </c>
@@ -8505,7 +9369,9 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="inlineStr"/>
+      <c r="A688" t="n">
+        <v>3</v>
+      </c>
       <c r="B688" t="n">
         <v>1.167575832623223e+18</v>
       </c>
@@ -8516,7 +9382,9 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" t="inlineStr"/>
+      <c r="A689" t="n">
+        <v>3</v>
+      </c>
       <c r="B689" t="n">
         <v>1.184445401228816e+18</v>
       </c>
@@ -8527,7 +9395,9 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" t="inlineStr"/>
+      <c r="A690" t="n">
+        <v>3</v>
+      </c>
       <c r="B690" t="n">
         <v>1.18064628153181e+18</v>
       </c>
@@ -8538,7 +9408,9 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" t="inlineStr"/>
+      <c r="A691" t="n">
+        <v>3</v>
+      </c>
       <c r="B691" t="n">
         <v>1.128753369697464e+18</v>
       </c>
@@ -8549,7 +9421,9 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" t="inlineStr"/>
+      <c r="A692" t="n">
+        <v>3</v>
+      </c>
       <c r="B692" t="n">
         <v>1.140392108152558e+18</v>
       </c>
@@ -8560,7 +9434,9 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" t="inlineStr"/>
+      <c r="A693" t="n">
+        <v>3</v>
+      </c>
       <c r="B693" t="n">
         <v>1.095856264544993e+18</v>
       </c>
@@ -8571,7 +9447,9 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="inlineStr"/>
+      <c r="A694" t="n">
+        <v>3</v>
+      </c>
       <c r="B694" t="n">
         <v>1.167549412199084e+18</v>
       </c>
@@ -8582,7 +9460,9 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" t="inlineStr"/>
+      <c r="A695" t="n">
+        <v>3</v>
+      </c>
       <c r="B695" t="n">
         <v>1.196513257768526e+18</v>
       </c>
@@ -8593,7 +9473,9 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr"/>
+      <c r="A696" t="n">
+        <v>1</v>
+      </c>
       <c r="B696" t="n">
         <v>1.138582933105762e+18</v>
       </c>
@@ -8604,7 +9486,9 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr"/>
+      <c r="A697" t="n">
+        <v>3</v>
+      </c>
       <c r="B697" t="n">
         <v>1.15547143201878e+18</v>
       </c>
@@ -8615,7 +9499,9 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" t="inlineStr"/>
+      <c r="A698" t="n">
+        <v>3</v>
+      </c>
       <c r="B698" t="n">
         <v>1.182445059142238e+18</v>
       </c>
@@ -8626,7 +9512,9 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr"/>
+      <c r="A699" t="n">
+        <v>3</v>
+      </c>
       <c r="B699" t="n">
         <v>1.12083261731679e+18</v>
       </c>
@@ -8637,7 +9525,9 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr"/>
+      <c r="A700" t="n">
+        <v>3</v>
+      </c>
       <c r="B700" t="n">
         <v>1.166253004737176e+18</v>
       </c>
@@ -8648,7 +9538,9 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr"/>
+      <c r="A701" t="n">
+        <v>3</v>
+      </c>
       <c r="B701" t="n">
         <v>1.186428362769625e+18</v>
       </c>
@@ -8659,7 +9551,9 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr"/>
+      <c r="A702" t="n">
+        <v>3</v>
+      </c>
       <c r="B702" t="n">
         <v>1.177876594611896e+18</v>
       </c>
@@ -8670,7 +9564,9 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr"/>
+      <c r="A703" t="n">
+        <v>3</v>
+      </c>
       <c r="B703" t="n">
         <v>1.194756918146994e+18</v>
       </c>
@@ -8681,7 +9577,9 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr"/>
+      <c r="A704" t="n">
+        <v>2</v>
+      </c>
       <c r="B704" t="n">
         <v>1.087477480984887e+18</v>
       </c>
@@ -8692,7 +9590,9 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr"/>
+      <c r="A705" t="n">
+        <v>1</v>
+      </c>
       <c r="B705" t="n">
         <v>1.210047391170224e+18</v>
       </c>
@@ -8703,7 +9603,9 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr"/>
+      <c r="A706" t="n">
+        <v>3</v>
+      </c>
       <c r="B706" t="n">
         <v>1.135258965997171e+18</v>
       </c>
@@ -8714,7 +9616,9 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr"/>
+      <c r="A707" t="n">
+        <v>3</v>
+      </c>
       <c r="B707" t="n">
         <v>1.191650630395408e+18</v>
       </c>
@@ -8725,7 +9629,9 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr"/>
+      <c r="A708" t="n">
+        <v>2</v>
+      </c>
       <c r="B708" t="n">
         <v>1.108736089232196e+18</v>
       </c>
@@ -8736,7 +9642,9 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr"/>
+      <c r="A709" t="n">
+        <v>2</v>
+      </c>
       <c r="B709" t="n">
         <v>1.209254134806929e+18</v>
       </c>
@@ -8747,7 +9655,9 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr"/>
+      <c r="A710" t="n">
+        <v>3</v>
+      </c>
       <c r="B710" t="n">
         <v>1.203838364694319e+18</v>
       </c>
@@ -8758,7 +9668,9 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr"/>
+      <c r="A711" t="n">
+        <v>3</v>
+      </c>
       <c r="B711" t="n">
         <v>1.19044157780786e+18</v>
       </c>
@@ -8769,7 +9681,9 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr"/>
+      <c r="A712" t="n">
+        <v>2</v>
+      </c>
       <c r="B712" t="n">
         <v>1.101236186012627e+18</v>
       </c>
@@ -8793,7 +9707,9 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr"/>
+      <c r="A714" t="n">
+        <v>2</v>
+      </c>
       <c r="B714" t="n">
         <v>1.120440449423036e+18</v>
       </c>
@@ -8804,7 +9720,9 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr"/>
+      <c r="A715" t="n">
+        <v>3</v>
+      </c>
       <c r="B715" t="n">
         <v>1.171655760427856e+18</v>
       </c>
@@ -8815,7 +9733,9 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr"/>
+      <c r="A716" t="n">
+        <v>2</v>
+      </c>
       <c r="B716" t="n">
         <v>1.130514682375283e+18</v>
       </c>
@@ -8826,7 +9746,9 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr"/>
+      <c r="A717" t="n">
+        <v>3</v>
+      </c>
       <c r="B717" t="n">
         <v>1.093511055198876e+18</v>
       </c>
@@ -8837,7 +9759,9 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr"/>
+      <c r="A718" t="n">
+        <v>1</v>
+      </c>
       <c r="B718" t="n">
         <v>1.08449930289288e+18</v>
       </c>
@@ -8848,7 +9772,9 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" t="inlineStr"/>
+      <c r="A719" t="n">
+        <v>2</v>
+      </c>
       <c r="B719" t="n">
         <v>1.20480076861791e+18</v>
       </c>
@@ -8859,7 +9785,9 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" t="inlineStr"/>
+      <c r="A720" t="n">
+        <v>2</v>
+      </c>
       <c r="B720" t="n">
         <v>1.189321905569972e+18</v>
       </c>
@@ -8870,7 +9798,9 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" t="inlineStr"/>
+      <c r="A721" t="n">
+        <v>1</v>
+      </c>
       <c r="B721" t="n">
         <v>1.135246510323642e+18</v>
       </c>
@@ -8881,7 +9811,9 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" t="inlineStr"/>
+      <c r="A722" t="n">
+        <v>1</v>
+      </c>
       <c r="B722" t="n">
         <v>1.186010745999376e+18</v>
       </c>
@@ -8892,7 +9824,9 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr"/>
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
       <c r="B723" t="n">
         <v>1.089359463096685e+18</v>
       </c>
@@ -8903,7 +9837,9 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr"/>
+      <c r="A724" t="n">
+        <v>1</v>
+      </c>
       <c r="B724" t="n">
         <v>1.184150243337748e+18</v>
       </c>
@@ -8914,7 +9850,9 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" t="inlineStr"/>
+      <c r="A725" t="n">
+        <v>1</v>
+      </c>
       <c r="B725" t="n">
         <v>1.202545289468547e+18</v>
       </c>
@@ -8925,7 +9863,9 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" t="inlineStr"/>
+      <c r="A726" t="n">
+        <v>2</v>
+      </c>
       <c r="B726" t="n">
         <v>1.1563515329647e+18</v>
       </c>
@@ -8936,7 +9876,9 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="inlineStr"/>
+      <c r="A727" t="n">
+        <v>2</v>
+      </c>
       <c r="B727" t="n">
         <v>1.106266072666329e+18</v>
       </c>
@@ -8960,7 +9902,9 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" t="inlineStr"/>
+      <c r="A729" t="n">
+        <v>2</v>
+      </c>
       <c r="B729" t="n">
         <v>1.178739205691843e+18</v>
       </c>
@@ -8971,7 +9915,9 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr"/>
+      <c r="A730" t="n">
+        <v>1</v>
+      </c>
       <c r="B730" t="n">
         <v>1.090565698655539e+18</v>
       </c>
@@ -8982,7 +9928,9 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr"/>
+      <c r="A731" t="n">
+        <v>2</v>
+      </c>
       <c r="B731" t="n">
         <v>1.11911374881006e+18</v>
       </c>
@@ -8993,7 +9941,9 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" t="inlineStr"/>
+      <c r="A732" t="n">
+        <v>2</v>
+      </c>
       <c r="B732" t="n">
         <v>1.087493177366512e+18</v>
       </c>
@@ -9004,7 +9954,9 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" t="inlineStr"/>
+      <c r="A733" t="n">
+        <v>2</v>
+      </c>
       <c r="B733" t="n">
         <v>1.155473985846616e+18</v>
       </c>
@@ -9015,7 +9967,9 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" t="inlineStr"/>
+      <c r="A734" t="n">
+        <v>2</v>
+      </c>
       <c r="B734" t="n">
         <v>1.150963065367802e+18</v>
       </c>
@@ -9026,7 +9980,9 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" t="inlineStr"/>
+      <c r="A735" t="n">
+        <v>3</v>
+      </c>
       <c r="B735" t="n">
         <v>1.109609275301732e+18</v>
       </c>
@@ -9037,7 +9993,9 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr"/>
+      <c r="A736" t="n">
+        <v>1</v>
+      </c>
       <c r="B736" t="n">
         <v>1.202790389511524e+18</v>
       </c>
@@ -9048,7 +10006,9 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr"/>
+      <c r="A737" t="n">
+        <v>3</v>
+      </c>
       <c r="B737" t="n">
         <v>1.105859402081419e+18</v>
       </c>
@@ -9059,7 +10019,9 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr"/>
+      <c r="A738" t="n">
+        <v>3</v>
+      </c>
       <c r="B738" t="n">
         <v>1.101261509815087e+18</v>
       </c>
@@ -9070,7 +10032,9 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr"/>
+      <c r="A739" t="n">
+        <v>3</v>
+      </c>
       <c r="B739" t="n">
         <v>1.177538183166222e+18</v>
       </c>
@@ -9081,7 +10045,9 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr"/>
+      <c r="A740" t="n">
+        <v>3</v>
+      </c>
       <c r="B740" t="n">
         <v>1.126693017874645e+18</v>
       </c>
@@ -9092,7 +10058,9 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr"/>
+      <c r="A741" t="n">
+        <v>1</v>
+      </c>
       <c r="B741" t="n">
         <v>1.188874059544707e+18</v>
       </c>
@@ -9103,7 +10071,9 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" t="inlineStr"/>
+      <c r="A742" t="n">
+        <v>1</v>
+      </c>
       <c r="B742" t="n">
         <v>1.138470244400415e+18</v>
       </c>
@@ -9114,7 +10084,9 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr"/>
+      <c r="A743" t="n">
+        <v>3</v>
+      </c>
       <c r="B743" t="n">
         <v>1.092230739570188e+18</v>
       </c>
@@ -9125,7 +10097,9 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr"/>
+      <c r="A744" t="n">
+        <v>1</v>
+      </c>
       <c r="B744" t="n">
         <v>1.181024192302596e+18</v>
       </c>
@@ -9136,7 +10110,9 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" t="inlineStr"/>
+      <c r="A745" t="n">
+        <v>3</v>
+      </c>
       <c r="B745" t="n">
         <v>1.18422210825726e+18</v>
       </c>
@@ -9147,7 +10123,9 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" t="inlineStr"/>
+      <c r="A746" t="n">
+        <v>2</v>
+      </c>
       <c r="B746" t="n">
         <v>1.147230957562401e+18</v>
       </c>
@@ -9158,7 +10136,9 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" t="inlineStr"/>
+      <c r="A747" t="n">
+        <v>2</v>
+      </c>
       <c r="B747" t="n">
         <v>1.187621911011975e+18</v>
       </c>
@@ -9169,7 +10149,9 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" t="inlineStr"/>
+      <c r="A748" t="n">
+        <v>2</v>
+      </c>
       <c r="B748" t="n">
         <v>1.192856752892588e+18</v>
       </c>
@@ -9193,7 +10175,9 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" t="inlineStr"/>
+      <c r="A750" t="n">
+        <v>2</v>
+      </c>
       <c r="B750" t="n">
         <v>1.20157594007944e+18</v>
       </c>
@@ -9204,7 +10188,9 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" t="inlineStr"/>
+      <c r="A751" t="n">
+        <v>1</v>
+      </c>
       <c r="B751" t="n">
         <v>1.211438975631659e+18</v>
       </c>
@@ -9215,7 +10201,9 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" t="inlineStr"/>
+      <c r="A752" t="n">
+        <v>1</v>
+      </c>
       <c r="B752" t="n">
         <v>1.200245547485012e+18</v>
       </c>
@@ -9226,7 +10214,9 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" t="inlineStr"/>
+      <c r="A753" t="n">
+        <v>1</v>
+      </c>
       <c r="B753" t="n">
         <v>1.166320093766345e+18</v>
       </c>
@@ -9237,7 +10227,9 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" t="inlineStr"/>
+      <c r="A754" t="n">
+        <v>2</v>
+      </c>
       <c r="B754" t="n">
         <v>1.081256333893087e+18</v>
       </c>
@@ -9248,7 +10240,9 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" t="inlineStr"/>
+      <c r="A755" t="n">
+        <v>2</v>
+      </c>
       <c r="B755" t="n">
         <v>1.195045270842675e+18</v>
       </c>
@@ -9259,7 +10253,9 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" t="inlineStr"/>
+      <c r="A756" t="n">
+        <v>2</v>
+      </c>
       <c r="B756" t="n">
         <v>1.089304913891467e+18</v>
       </c>
@@ -9270,7 +10266,9 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" t="inlineStr"/>
+      <c r="A757" t="n">
+        <v>3</v>
+      </c>
       <c r="B757" t="n">
         <v>1.1202692948002e+18</v>
       </c>
@@ -9281,7 +10279,9 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" t="inlineStr"/>
+      <c r="A758" t="n">
+        <v>3</v>
+      </c>
       <c r="B758" t="n">
         <v>1.098574997466087e+18</v>
       </c>
@@ -9292,7 +10292,9 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" t="inlineStr"/>
+      <c r="A759" t="n">
+        <v>3</v>
+      </c>
       <c r="B759" t="n">
         <v>1.171732926175859e+18</v>
       </c>
@@ -9303,7 +10305,9 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" t="inlineStr"/>
+      <c r="A760" t="n">
+        <v>1</v>
+      </c>
       <c r="B760" t="n">
         <v>1.124036025494528e+18</v>
       </c>
@@ -9314,7 +10318,9 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr"/>
+      <c r="A761" t="n">
+        <v>3</v>
+      </c>
       <c r="B761" t="n">
         <v>1.133121459637957e+18</v>
       </c>
@@ -9325,7 +10331,9 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr"/>
+      <c r="A762" t="n">
+        <v>2</v>
+      </c>
       <c r="B762" t="n">
         <v>1.170194727314084e+18</v>
       </c>
@@ -9336,7 +10344,9 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr"/>
+      <c r="A763" t="n">
+        <v>3</v>
+      </c>
       <c r="B763" t="n">
         <v>1.109853124792119e+18</v>
       </c>
@@ -9347,7 +10357,9 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr"/>
+      <c r="A764" t="n">
+        <v>3</v>
+      </c>
       <c r="B764" t="n">
         <v>1.175061277724619e+18</v>
       </c>
@@ -9358,7 +10370,9 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" t="inlineStr"/>
+      <c r="A765" t="n">
+        <v>2</v>
+      </c>
       <c r="B765" t="n">
         <v>1.092685672467575e+18</v>
       </c>
@@ -9369,7 +10383,9 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr"/>
+      <c r="A766" t="n">
+        <v>1</v>
+      </c>
       <c r="B766" t="n">
         <v>1.169424511831302e+18</v>
       </c>
@@ -9380,7 +10396,9 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr"/>
+      <c r="A767" t="n">
+        <v>3</v>
+      </c>
       <c r="B767" t="n">
         <v>1.10996100959742e+18</v>
       </c>
@@ -9391,7 +10409,9 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" t="inlineStr"/>
+      <c r="A768" t="n">
+        <v>3</v>
+      </c>
       <c r="B768" t="n">
         <v>1.150099980729954e+18</v>
       </c>
@@ -9402,7 +10422,9 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" t="inlineStr"/>
+      <c r="A769" t="n">
+        <v>2</v>
+      </c>
       <c r="B769" t="n">
         <v>1.171372784406151e+18</v>
       </c>
@@ -9413,7 +10435,9 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" t="inlineStr"/>
+      <c r="A770" t="n">
+        <v>3</v>
+      </c>
       <c r="B770" t="n">
         <v>1.196869691135943e+18</v>
       </c>
@@ -9424,7 +10448,9 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" t="inlineStr"/>
+      <c r="A771" t="n">
+        <v>1</v>
+      </c>
       <c r="B771" t="n">
         <v>1.210016139037856e+18</v>
       </c>
@@ -9435,7 +10461,9 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr"/>
+      <c r="A772" t="n">
+        <v>2</v>
+      </c>
       <c r="B772" t="n">
         <v>1.189562297750041e+18</v>
       </c>
@@ -9446,7 +10474,9 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr"/>
+      <c r="A773" t="n">
+        <v>3</v>
+      </c>
       <c r="B773" t="n">
         <v>1.149484189886009e+18</v>
       </c>
@@ -9457,7 +10487,9 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" t="inlineStr"/>
+      <c r="A774" t="n">
+        <v>2</v>
+      </c>
       <c r="B774" t="n">
         <v>1.169308595739144e+18</v>
       </c>
@@ -9468,7 +10500,9 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" t="inlineStr"/>
+      <c r="A775" t="n">
+        <v>1</v>
+      </c>
       <c r="B775" t="n">
         <v>1.088222251319788e+18</v>
       </c>
@@ -9479,7 +10513,9 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" t="inlineStr"/>
+      <c r="A776" t="n">
+        <v>2</v>
+      </c>
       <c r="B776" t="n">
         <v>1.168577598902944e+18</v>
       </c>
@@ -9490,7 +10526,9 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" t="inlineStr"/>
+      <c r="A777" t="n">
+        <v>2</v>
+      </c>
       <c r="B777" t="n">
         <v>1.11926758827674e+18</v>
       </c>
@@ -9501,7 +10539,9 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" t="inlineStr"/>
+      <c r="A778" t="n">
+        <v>3</v>
+      </c>
       <c r="B778" t="n">
         <v>1.183708680862216e+18</v>
       </c>
@@ -9512,7 +10552,9 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr"/>
+      <c r="A779" t="n">
+        <v>3</v>
+      </c>
       <c r="B779" t="n">
         <v>1.181309110496764e+18</v>
       </c>
@@ -9523,7 +10565,9 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr"/>
+      <c r="A780" t="n">
+        <v>3</v>
+      </c>
       <c r="B780" t="n">
         <v>1.149669296638796e+18</v>
       </c>
@@ -9534,7 +10578,9 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr"/>
+      <c r="A781" t="n">
+        <v>1</v>
+      </c>
       <c r="B781" t="n">
         <v>1.179409769968349e+18</v>
       </c>
@@ -9545,7 +10591,9 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" t="inlineStr"/>
+      <c r="A782" t="n">
+        <v>3</v>
+      </c>
       <c r="B782" t="n">
         <v>1.172251313687712e+18</v>
       </c>
@@ -9556,7 +10604,9 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" t="inlineStr"/>
+      <c r="A783" t="n">
+        <v>1</v>
+      </c>
       <c r="B783" t="n">
         <v>1.08236657065404e+18</v>
       </c>
@@ -9567,7 +10617,9 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr"/>
+      <c r="A784" t="n">
+        <v>2</v>
+      </c>
       <c r="B784" t="n">
         <v>1.185710399125152e+18</v>
       </c>
@@ -9578,7 +10630,9 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" t="inlineStr"/>
+      <c r="A785" t="n">
+        <v>3</v>
+      </c>
       <c r="B785" t="n">
         <v>1.150934880034939e+18</v>
       </c>
@@ -9589,7 +10643,9 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" t="inlineStr"/>
+      <c r="A786" t="n">
+        <v>1</v>
+      </c>
       <c r="B786" t="n">
         <v>1.096470925137072e+18</v>
       </c>
@@ -9600,7 +10656,9 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" t="inlineStr"/>
+      <c r="A787" t="n">
+        <v>2</v>
+      </c>
       <c r="B787" t="n">
         <v>1.172290545336689e+18</v>
       </c>
@@ -9611,7 +10669,9 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" t="inlineStr"/>
+      <c r="A788" t="n">
+        <v>2</v>
+      </c>
       <c r="B788" t="n">
         <v>1.192619636552016e+18</v>
       </c>
@@ -9622,7 +10682,9 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" t="inlineStr"/>
+      <c r="A789" t="n">
+        <v>3</v>
+      </c>
       <c r="B789" t="n">
         <v>1.16023411469337e+18</v>
       </c>
@@ -9633,7 +10695,9 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" t="inlineStr"/>
+      <c r="A790" t="n">
+        <v>2</v>
+      </c>
       <c r="B790" t="n">
         <v>1.178950894215414e+18</v>
       </c>
@@ -9657,7 +10721,9 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr"/>
+      <c r="A792" t="n">
+        <v>3</v>
+      </c>
       <c r="B792" t="n">
         <v>1.172978680513143e+18</v>
       </c>
@@ -9668,7 +10734,9 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" t="inlineStr"/>
+      <c r="A793" t="n">
+        <v>2</v>
+      </c>
       <c r="B793" t="n">
         <v>1.128787861183062e+18</v>
       </c>
@@ -9679,7 +10747,9 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" t="inlineStr"/>
+      <c r="A794" t="n">
+        <v>3</v>
+      </c>
       <c r="B794" t="n">
         <v>1.124449325562704e+18</v>
       </c>
@@ -9690,7 +10760,9 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" t="inlineStr"/>
+      <c r="A795" t="n">
+        <v>3</v>
+      </c>
       <c r="B795" t="n">
         <v>1.08984526845397e+18</v>
       </c>
@@ -9714,7 +10786,9 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" t="inlineStr"/>
+      <c r="A797" t="n">
+        <v>1</v>
+      </c>
       <c r="B797" t="n">
         <v>1.106223012012061e+18</v>
       </c>
@@ -9725,7 +10799,9 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" t="inlineStr"/>
+      <c r="A798" t="n">
+        <v>1</v>
+      </c>
       <c r="B798" t="n">
         <v>1.113946561451569e+18</v>
       </c>
@@ -9736,7 +10812,9 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" t="inlineStr"/>
+      <c r="A799" t="n">
+        <v>2</v>
+      </c>
       <c r="B799" t="n">
         <v>1.168529914158637e+18</v>
       </c>
@@ -9747,7 +10825,9 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" t="inlineStr"/>
+      <c r="A800" t="n">
+        <v>1</v>
+      </c>
       <c r="B800" t="n">
         <v>1.206991940799148e+18</v>
       </c>
@@ -9758,7 +10838,9 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" t="inlineStr"/>
+      <c r="A801" t="n">
+        <v>2</v>
+      </c>
       <c r="B801" t="n">
         <v>1.141029839635472e+18</v>
       </c>
@@ -9769,7 +10851,9 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" t="inlineStr"/>
+      <c r="A802" t="n">
+        <v>1</v>
+      </c>
       <c r="B802" t="n">
         <v>1.170716594840003e+18</v>
       </c>
@@ -9780,7 +10864,9 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" t="inlineStr"/>
+      <c r="A803" t="n">
+        <v>1</v>
+      </c>
       <c r="B803" t="n">
         <v>1.18359875597681e+18</v>
       </c>
@@ -9791,7 +10877,9 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" t="inlineStr"/>
+      <c r="A804" t="n">
+        <v>3</v>
+      </c>
       <c r="B804" t="n">
         <v>1.140446179345539e+18</v>
       </c>
@@ -9802,7 +10890,9 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" t="inlineStr"/>
+      <c r="A805" t="n">
+        <v>1</v>
+      </c>
       <c r="B805" t="n">
         <v>1.152710184252428e+18</v>
       </c>
@@ -9813,7 +10903,9 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" t="inlineStr"/>
+      <c r="A806" t="n">
+        <v>2</v>
+      </c>
       <c r="B806" t="n">
         <v>1.115287216803025e+18</v>
       </c>
@@ -9824,7 +10916,9 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" t="inlineStr"/>
+      <c r="A807" t="n">
+        <v>3</v>
+      </c>
       <c r="B807" t="n">
         <v>1.128019059981914e+18</v>
       </c>
@@ -9835,7 +10929,9 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" t="inlineStr"/>
+      <c r="A808" t="n">
+        <v>1</v>
+      </c>
       <c r="B808" t="n">
         <v>1.126653148171514e+18</v>
       </c>
@@ -9846,7 +10942,9 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" t="inlineStr"/>
+      <c r="A809" t="n">
+        <v>3</v>
+      </c>
       <c r="B809" t="n">
         <v>1.20568631301129e+18</v>
       </c>
@@ -9857,7 +10955,9 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" t="inlineStr"/>
+      <c r="A810" t="n">
+        <v>1</v>
+      </c>
       <c r="B810" t="n">
         <v>1.171201760825881e+18</v>
       </c>
@@ -9868,7 +10968,9 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" t="inlineStr"/>
+      <c r="A811" t="n">
+        <v>2</v>
+      </c>
       <c r="B811" t="n">
         <v>1.109676268184916e+18</v>
       </c>
@@ -9879,7 +10981,9 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" t="inlineStr"/>
+      <c r="A812" t="n">
+        <v>1</v>
+      </c>
       <c r="B812" t="n">
         <v>1.114539642261594e+18</v>
       </c>
@@ -9890,7 +10994,9 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" t="inlineStr"/>
+      <c r="A813" t="n">
+        <v>1</v>
+      </c>
       <c r="B813" t="n">
         <v>1.107809064917049e+18</v>
       </c>
@@ -9901,7 +11007,9 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" t="inlineStr"/>
+      <c r="A814" t="n">
+        <v>3</v>
+      </c>
       <c r="B814" t="n">
         <v>1.162506825775944e+18</v>
       </c>
@@ -9912,7 +11020,9 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" t="inlineStr"/>
+      <c r="A815" t="n">
+        <v>3</v>
+      </c>
       <c r="B815" t="n">
         <v>1.132276404538814e+18</v>
       </c>
@@ -9923,7 +11033,9 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" t="inlineStr"/>
+      <c r="A816" t="n">
+        <v>3</v>
+      </c>
       <c r="B816" t="n">
         <v>1.080908459329999e+18</v>
       </c>
@@ -9934,7 +11046,9 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" t="inlineStr"/>
+      <c r="A817" t="n">
+        <v>3</v>
+      </c>
       <c r="B817" t="n">
         <v>1.164820095010427e+18</v>
       </c>
@@ -9945,7 +11059,9 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" t="inlineStr"/>
+      <c r="A818" t="n">
+        <v>2</v>
+      </c>
       <c r="B818" t="n">
         <v>1.173763277412811e+18</v>
       </c>
@@ -9956,7 +11072,9 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" t="inlineStr"/>
+      <c r="A819" t="n">
+        <v>3</v>
+      </c>
       <c r="B819" t="n">
         <v>1.113810144499048e+18</v>
       </c>
@@ -9967,7 +11085,9 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" t="inlineStr"/>
+      <c r="A820" t="n">
+        <v>3</v>
+      </c>
       <c r="B820" t="n">
         <v>1.183795230119731e+18</v>
       </c>
@@ -9978,7 +11098,9 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" t="inlineStr"/>
+      <c r="A821" t="n">
+        <v>2</v>
+      </c>
       <c r="B821" t="n">
         <v>1.201331354178347e+18</v>
       </c>
@@ -9989,7 +11111,9 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" t="inlineStr"/>
+      <c r="A822" t="n">
+        <v>1</v>
+      </c>
       <c r="B822" t="n">
         <v>1.124001107351691e+18</v>
       </c>
@@ -10000,7 +11124,9 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" t="inlineStr"/>
+      <c r="A823" t="n">
+        <v>2</v>
+      </c>
       <c r="B823" t="n">
         <v>1.150966201188848e+18</v>
       </c>
@@ -10011,7 +11137,9 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" t="inlineStr"/>
+      <c r="A824" t="n">
+        <v>1</v>
+      </c>
       <c r="B824" t="n">
         <v>1.161760005445628e+18</v>
       </c>
@@ -10022,7 +11150,9 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" t="inlineStr"/>
+      <c r="A825" t="n">
+        <v>1</v>
+      </c>
       <c r="B825" t="n">
         <v>1.135372788309594e+18</v>
       </c>
@@ -10033,7 +11163,9 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr"/>
+      <c r="A826" t="n">
+        <v>3</v>
+      </c>
       <c r="B826" t="n">
         <v>1.153812839506649e+18</v>
       </c>
@@ -10044,7 +11176,9 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" t="inlineStr"/>
+      <c r="A827" t="n">
+        <v>2</v>
+      </c>
       <c r="B827" t="n">
         <v>1.18121796175709e+18</v>
       </c>
@@ -10055,7 +11189,9 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" t="inlineStr"/>
+      <c r="A828" t="n">
+        <v>3</v>
+      </c>
       <c r="B828" t="n">
         <v>1.161730655895597e+18</v>
       </c>
@@ -10066,7 +11202,9 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" t="inlineStr"/>
+      <c r="A829" t="n">
+        <v>1</v>
+      </c>
       <c r="B829" t="n">
         <v>1.174436047805178e+18</v>
       </c>
@@ -10077,7 +11215,9 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" t="inlineStr"/>
+      <c r="A830" t="n">
+        <v>3</v>
+      </c>
       <c r="B830" t="n">
         <v>1.174779986974335e+18</v>
       </c>
@@ -10088,7 +11228,9 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" t="inlineStr"/>
+      <c r="A831" t="n">
+        <v>1</v>
+      </c>
       <c r="B831" t="n">
         <v>1.20669399183362e+18</v>
       </c>
@@ -10099,7 +11241,9 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" t="inlineStr"/>
+      <c r="A832" t="n">
+        <v>1</v>
+      </c>
       <c r="B832" t="n">
         <v>1.13594606399359e+18</v>
       </c>
@@ -10110,7 +11254,9 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" t="inlineStr"/>
+      <c r="A833" t="n">
+        <v>1</v>
+      </c>
       <c r="B833" t="n">
         <v>1.150541494874444e+18</v>
       </c>
@@ -10121,7 +11267,9 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" t="inlineStr"/>
+      <c r="A834" t="n">
+        <v>1</v>
+      </c>
       <c r="B834" t="n">
         <v>1.121152663603831e+18</v>
       </c>
@@ -10132,7 +11280,9 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" t="inlineStr"/>
+      <c r="A835" t="n">
+        <v>1</v>
+      </c>
       <c r="B835" t="n">
         <v>1.204249235757122e+18</v>
       </c>
@@ -10143,7 +11293,9 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" t="inlineStr"/>
+      <c r="A836" t="n">
+        <v>2</v>
+      </c>
       <c r="B836" t="n">
         <v>1.171169225429475e+18</v>
       </c>
@@ -10154,7 +11306,9 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr"/>
+      <c r="A837" t="n">
+        <v>1</v>
+      </c>
       <c r="B837" t="n">
         <v>1.181396433389462e+18</v>
       </c>
@@ -10165,7 +11319,9 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr"/>
+      <c r="A838" t="n">
+        <v>1</v>
+      </c>
       <c r="B838" t="n">
         <v>1.11854830685721e+18</v>
       </c>
@@ -10176,7 +11332,9 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr"/>
+      <c r="A839" t="n">
+        <v>1</v>
+      </c>
       <c r="B839" t="n">
         <v>1.085733466786931e+18</v>
       </c>
@@ -10187,7 +11345,9 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" t="inlineStr"/>
+      <c r="A840" t="n">
+        <v>1</v>
+      </c>
       <c r="B840" t="n">
         <v>1.153726603572187e+18</v>
       </c>
@@ -10198,7 +11358,9 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr"/>
+      <c r="A841" t="n">
+        <v>1</v>
+      </c>
       <c r="B841" t="n">
         <v>1.088426132305785e+18</v>
       </c>
@@ -10209,7 +11371,9 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr"/>
+      <c r="A842" t="n">
+        <v>2</v>
+      </c>
       <c r="B842" t="n">
         <v>1.179229956733391e+18</v>
       </c>
@@ -10220,7 +11384,9 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" t="inlineStr"/>
+      <c r="A843" t="n">
+        <v>2</v>
+      </c>
       <c r="B843" t="n">
         <v>1.197917539277398e+18</v>
       </c>
@@ -10231,7 +11397,9 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" t="inlineStr"/>
+      <c r="A844" t="n">
+        <v>1</v>
+      </c>
       <c r="B844" t="n">
         <v>1.18137960309869e+18</v>
       </c>
@@ -10242,7 +11410,9 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" t="inlineStr"/>
+      <c r="A845" t="n">
+        <v>1</v>
+      </c>
       <c r="B845" t="n">
         <v>1.08591276876986e+18</v>
       </c>
@@ -10253,7 +11423,9 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" t="inlineStr"/>
+      <c r="A846" t="n">
+        <v>3</v>
+      </c>
       <c r="B846" t="n">
         <v>1.086421501149012e+18</v>
       </c>
@@ -10264,7 +11436,9 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" t="inlineStr"/>
+      <c r="A847" t="n">
+        <v>2</v>
+      </c>
       <c r="B847" t="n">
         <v>1.200924123804971e+18</v>
       </c>
@@ -10275,7 +11449,9 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" t="inlineStr"/>
+      <c r="A848" t="n">
+        <v>3</v>
+      </c>
       <c r="B848" t="n">
         <v>1.12626037080345e+18</v>
       </c>
@@ -10286,7 +11462,9 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" t="inlineStr"/>
+      <c r="A849" t="n">
+        <v>3</v>
+      </c>
       <c r="B849" t="n">
         <v>1.176132961441321e+18</v>
       </c>
@@ -10297,7 +11475,9 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" t="inlineStr"/>
+      <c r="A850" t="n">
+        <v>2</v>
+      </c>
       <c r="B850" t="n">
         <v>1.158510529633235e+18</v>
       </c>
@@ -10308,7 +11488,9 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr"/>
+      <c r="A851" t="n">
+        <v>1</v>
+      </c>
       <c r="B851" t="n">
         <v>1.209883935288762e+18</v>
       </c>
@@ -10319,7 +11501,9 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr"/>
+      <c r="A852" t="n">
+        <v>1</v>
+      </c>
       <c r="B852" t="n">
         <v>1.189888529750475e+18</v>
       </c>
@@ -10330,7 +11514,9 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
+      <c r="A853" t="n">
+        <v>1</v>
+      </c>
       <c r="B853" t="n">
         <v>1.117287323547337e+18</v>
       </c>
@@ -10341,7 +11527,9 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr"/>
+      <c r="A854" t="n">
+        <v>3</v>
+      </c>
       <c r="B854" t="n">
         <v>1.175998788168802e+18</v>
       </c>
@@ -10352,7 +11540,9 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" t="inlineStr"/>
+      <c r="A855" t="n">
+        <v>1</v>
+      </c>
       <c r="B855" t="n">
         <v>1.123804599251603e+18</v>
       </c>
@@ -10363,7 +11553,9 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr"/>
+      <c r="A856" t="n">
+        <v>1</v>
+      </c>
       <c r="B856" t="n">
         <v>1.199368425778352e+18</v>
       </c>
@@ -10374,7 +11566,9 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr"/>
+      <c r="A857" t="n">
+        <v>1</v>
+      </c>
       <c r="B857" t="n">
         <v>1.165653816416571e+18</v>
       </c>
@@ -10385,7 +11579,9 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" t="inlineStr"/>
+      <c r="A858" t="n">
+        <v>1</v>
+      </c>
       <c r="B858" t="n">
         <v>1.186063087167783e+18</v>
       </c>
@@ -10396,7 +11592,9 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr"/>
+      <c r="A859" t="n">
+        <v>3</v>
+      </c>
       <c r="B859" t="n">
         <v>1.175730044058132e+18</v>
       </c>
@@ -10407,7 +11605,9 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr"/>
+      <c r="A860" t="n">
+        <v>2</v>
+      </c>
       <c r="B860" t="n">
         <v>1.163326530292015e+18</v>
       </c>
@@ -10418,7 +11618,9 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" t="inlineStr"/>
+      <c r="A861" t="n">
+        <v>1</v>
+      </c>
       <c r="B861" t="n">
         <v>1.198668102680101e+18</v>
       </c>
@@ -10429,7 +11631,9 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" t="inlineStr"/>
+      <c r="A862" t="n">
+        <v>3</v>
+      </c>
       <c r="B862" t="n">
         <v>1.210931794733863e+18</v>
       </c>
@@ -10440,7 +11644,9 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" t="inlineStr"/>
+      <c r="A863" t="n">
+        <v>1</v>
+      </c>
       <c r="B863" t="n">
         <v>1.164671383214932e+18</v>
       </c>
@@ -10451,7 +11657,9 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" t="inlineStr"/>
+      <c r="A864" t="n">
+        <v>3</v>
+      </c>
       <c r="B864" t="n">
         <v>1.153453308406841e+18</v>
       </c>
@@ -10462,7 +11670,9 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" t="inlineStr"/>
+      <c r="A865" t="n">
+        <v>3</v>
+      </c>
       <c r="B865" t="n">
         <v>1.17451226970062e+18</v>
       </c>
@@ -10473,7 +11683,9 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" t="inlineStr"/>
+      <c r="A866" t="n">
+        <v>2</v>
+      </c>
       <c r="B866" t="n">
         <v>1.163004014176457e+18</v>
       </c>
@@ -10484,7 +11696,9 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" t="inlineStr"/>
+      <c r="A867" t="n">
+        <v>2</v>
+      </c>
       <c r="B867" t="n">
         <v>1.130232123242308e+18</v>
       </c>
@@ -10495,7 +11709,9 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" t="inlineStr"/>
+      <c r="A868" t="n">
+        <v>1</v>
+      </c>
       <c r="B868" t="n">
         <v>1.192564168139977e+18</v>
       </c>
@@ -10506,7 +11722,9 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" t="inlineStr"/>
+      <c r="A869" t="n">
+        <v>3</v>
+      </c>
       <c r="B869" t="n">
         <v>1.183752782404293e+18</v>
       </c>
@@ -10517,7 +11735,9 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" t="inlineStr"/>
+      <c r="A870" t="n">
+        <v>1</v>
+      </c>
       <c r="B870" t="n">
         <v>1.178170020536431e+18</v>
       </c>
@@ -10528,7 +11748,9 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" t="inlineStr"/>
+      <c r="A871" t="n">
+        <v>3</v>
+      </c>
       <c r="B871" t="n">
         <v>1.191174334624219e+18</v>
       </c>
@@ -10539,7 +11761,9 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" t="inlineStr"/>
+      <c r="A872" t="n">
+        <v>3</v>
+      </c>
       <c r="B872" t="n">
         <v>1.195803007323128e+18</v>
       </c>
@@ -10550,7 +11774,9 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" t="inlineStr"/>
+      <c r="A873" t="n">
+        <v>3</v>
+      </c>
       <c r="B873" t="n">
         <v>1.165717906187067e+18</v>
       </c>
@@ -10561,7 +11787,9 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" t="inlineStr"/>
+      <c r="A874" t="n">
+        <v>2</v>
+      </c>
       <c r="B874" t="n">
         <v>1.168649938093265e+18</v>
       </c>
@@ -10572,7 +11800,9 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" t="inlineStr"/>
+      <c r="A875" t="n">
+        <v>3</v>
+      </c>
       <c r="B875" t="n">
         <v>1.153410747004858e+18</v>
       </c>
@@ -10583,7 +11813,9 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" t="inlineStr"/>
+      <c r="A876" t="n">
+        <v>2</v>
+      </c>
       <c r="B876" t="n">
         <v>1.207795612554613e+18</v>
       </c>
@@ -10594,7 +11826,9 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" t="inlineStr"/>
+      <c r="A877" t="n">
+        <v>2</v>
+      </c>
       <c r="B877" t="n">
         <v>1.20848075064073e+18</v>
       </c>
@@ -10605,7 +11839,9 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" t="inlineStr"/>
+      <c r="A878" t="n">
+        <v>1</v>
+      </c>
       <c r="B878" t="n">
         <v>1.159204835532653e+18</v>
       </c>
@@ -10616,7 +11852,9 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" t="inlineStr"/>
+      <c r="A879" t="n">
+        <v>2</v>
+      </c>
       <c r="B879" t="n">
         <v>1.150953352387334e+18</v>
       </c>
@@ -10627,7 +11865,9 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" t="inlineStr"/>
+      <c r="A880" t="n">
+        <v>1</v>
+      </c>
       <c r="B880" t="n">
         <v>1.157124742396174e+18</v>
       </c>
@@ -10638,7 +11878,9 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" t="inlineStr"/>
+      <c r="A881" t="n">
+        <v>2</v>
+      </c>
       <c r="B881" t="n">
         <v>1.141719424350728e+18</v>
       </c>
@@ -10649,7 +11891,9 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" t="inlineStr"/>
+      <c r="A882" t="n">
+        <v>3</v>
+      </c>
       <c r="B882" t="n">
         <v>1.189410333271757e+18</v>
       </c>
@@ -10660,7 +11904,9 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" t="inlineStr"/>
+      <c r="A883" t="n">
+        <v>1</v>
+      </c>
       <c r="B883" t="n">
         <v>1.189986422452871e+18</v>
       </c>
@@ -10671,7 +11917,9 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" t="inlineStr"/>
+      <c r="A884" t="n">
+        <v>3</v>
+      </c>
       <c r="B884" t="n">
         <v>1.098949705466368e+18</v>
       </c>
@@ -10682,7 +11930,9 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" t="inlineStr"/>
+      <c r="A885" t="n">
+        <v>1</v>
+      </c>
       <c r="B885" t="n">
         <v>1.174134278181069e+18</v>
       </c>
@@ -10693,7 +11943,9 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" t="inlineStr"/>
+      <c r="A886" t="n">
+        <v>2</v>
+      </c>
       <c r="B886" t="n">
         <v>1.151491009785848e+18</v>
       </c>
@@ -10704,7 +11956,9 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" t="inlineStr"/>
+      <c r="A887" t="n">
+        <v>3</v>
+      </c>
       <c r="B887" t="n">
         <v>1.118542313293263e+18</v>
       </c>
@@ -10715,7 +11969,9 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" t="inlineStr"/>
+      <c r="A888" t="n">
+        <v>3</v>
+      </c>
       <c r="B888" t="n">
         <v>1.119014977841639e+18</v>
       </c>
@@ -10726,7 +11982,9 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" t="inlineStr"/>
+      <c r="A889" t="n">
+        <v>2</v>
+      </c>
       <c r="B889" t="n">
         <v>1.120208594555818e+18</v>
       </c>
@@ -10737,7 +11995,9 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="inlineStr"/>
+      <c r="A890" t="n">
+        <v>3</v>
+      </c>
       <c r="B890" t="n">
         <v>1.110484551334277e+18</v>
       </c>
@@ -10748,7 +12008,9 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" t="inlineStr"/>
+      <c r="A891" t="n">
+        <v>3</v>
+      </c>
       <c r="B891" t="n">
         <v>1.168860848196084e+18</v>
       </c>
@@ -10759,7 +12021,9 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr"/>
+      <c r="A892" t="n">
+        <v>1</v>
+      </c>
       <c r="B892" t="n">
         <v>1.17362099048149e+18</v>
       </c>
@@ -10770,7 +12034,9 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr"/>
+      <c r="A893" t="n">
+        <v>2</v>
+      </c>
       <c r="B893" t="n">
         <v>1.138204705161695e+18</v>
       </c>
@@ -10781,7 +12047,9 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" t="inlineStr"/>
+      <c r="A894" t="n">
+        <v>3</v>
+      </c>
       <c r="B894" t="n">
         <v>1.108065494488269e+18</v>
       </c>
@@ -10792,7 +12060,9 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" t="inlineStr"/>
+      <c r="A895" t="n">
+        <v>3</v>
+      </c>
       <c r="B895" t="n">
         <v>1.153668355456418e+18</v>
       </c>
@@ -10803,7 +12073,9 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr"/>
+      <c r="A896" t="n">
+        <v>3</v>
+      </c>
       <c r="B896" t="n">
         <v>1.092613504497041e+18</v>
       </c>
@@ -10814,7 +12086,9 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" t="inlineStr"/>
+      <c r="A897" t="n">
+        <v>3</v>
+      </c>
       <c r="B897" t="n">
         <v>1.112069007459406e+18</v>
       </c>
@@ -10825,7 +12099,9 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" t="inlineStr"/>
+      <c r="A898" t="n">
+        <v>2</v>
+      </c>
       <c r="B898" t="n">
         <v>1.107785587157844e+18</v>
       </c>
@@ -10836,7 +12112,9 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" t="inlineStr"/>
+      <c r="A899" t="n">
+        <v>2</v>
+      </c>
       <c r="B899" t="n">
         <v>1.177213100438643e+18</v>
       </c>
@@ -10847,7 +12125,9 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" t="inlineStr"/>
+      <c r="A900" t="n">
+        <v>2</v>
+      </c>
       <c r="B900" t="n">
         <v>1.172263223837516e+18</v>
       </c>
@@ -10858,7 +12138,9 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" t="inlineStr"/>
+      <c r="A901" t="n">
+        <v>3</v>
+      </c>
       <c r="B901" t="n">
         <v>1.146608525243798e+18</v>
       </c>
@@ -10869,7 +12151,9 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" t="inlineStr"/>
+      <c r="A902" t="n">
+        <v>1</v>
+      </c>
       <c r="B902" t="n">
         <v>1.189715575427207e+18</v>
       </c>
@@ -10880,7 +12164,9 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" t="inlineStr"/>
+      <c r="A903" t="n">
+        <v>1</v>
+      </c>
       <c r="B903" t="n">
         <v>1.184309363231597e+18</v>
       </c>
@@ -10891,7 +12177,9 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" t="inlineStr"/>
+      <c r="A904" t="n">
+        <v>2</v>
+      </c>
       <c r="B904" t="n">
         <v>1.156510655328989e+18</v>
       </c>
@@ -10902,7 +12190,9 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" t="inlineStr"/>
+      <c r="A905" t="n">
+        <v>3</v>
+      </c>
       <c r="B905" t="n">
         <v>1.106168844740149e+18</v>
       </c>
@@ -10913,7 +12203,9 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr"/>
+      <c r="A906" t="n">
+        <v>1</v>
+      </c>
       <c r="B906" t="n">
         <v>1.161451973213917e+18</v>
       </c>
@@ -10924,7 +12216,9 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" t="inlineStr"/>
+      <c r="A907" t="n">
+        <v>3</v>
+      </c>
       <c r="B907" t="n">
         <v>1.186710830051742e+18</v>
       </c>
@@ -10935,7 +12229,9 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr"/>
+      <c r="A908" t="n">
+        <v>3</v>
+      </c>
       <c r="B908" t="n">
         <v>1.198735948739158e+18</v>
       </c>
@@ -10946,7 +12242,9 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr"/>
+      <c r="A909" t="n">
+        <v>1</v>
+      </c>
       <c r="B909" t="n">
         <v>1.135583969804661e+18</v>
       </c>
@@ -10957,7 +12255,9 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr"/>
+      <c r="A910" t="n">
+        <v>3</v>
+      </c>
       <c r="B910" t="n">
         <v>1.109670466279608e+18</v>
       </c>
@@ -10968,7 +12268,9 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr"/>
+      <c r="A911" t="n">
+        <v>1</v>
+      </c>
       <c r="B911" t="n">
         <v>1.182842095339524e+18</v>
       </c>
@@ -10979,7 +12281,9 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr"/>
+      <c r="A912" t="n">
+        <v>2</v>
+      </c>
       <c r="B912" t="n">
         <v>1.181323632703881e+18</v>
       </c>
@@ -10990,7 +12294,9 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr"/>
+      <c r="A913" t="n">
+        <v>1</v>
+      </c>
       <c r="B913" t="n">
         <v>1.171962594325873e+18</v>
       </c>
@@ -11001,7 +12307,9 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr"/>
+      <c r="A914" t="n">
+        <v>1</v>
+      </c>
       <c r="B914" t="n">
         <v>1.143313734724674e+18</v>
       </c>
@@ -11012,7 +12320,9 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr"/>
+      <c r="A915" t="n">
+        <v>3</v>
+      </c>
       <c r="B915" t="n">
         <v>1.141486160478462e+18</v>
       </c>
@@ -11023,7 +12333,9 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" t="inlineStr"/>
+      <c r="A916" t="n">
+        <v>2</v>
+      </c>
       <c r="B916" t="n">
         <v>1.169458942847672e+18</v>
       </c>
@@ -11047,7 +12359,9 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr"/>
+      <c r="A918" t="n">
+        <v>2</v>
+      </c>
       <c r="B918" t="n">
         <v>1.148192113999393e+18</v>
       </c>
@@ -11058,7 +12372,9 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" t="inlineStr"/>
+      <c r="A919" t="n">
+        <v>3</v>
+      </c>
       <c r="B919" t="n">
         <v>1.203675357540487e+18</v>
       </c>
@@ -11069,7 +12385,9 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" t="inlineStr"/>
+      <c r="A920" t="n">
+        <v>1</v>
+      </c>
       <c r="B920" t="n">
         <v>1.099420206026371e+18</v>
       </c>
@@ -11080,7 +12398,9 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr"/>
+      <c r="A921" t="n">
+        <v>2</v>
+      </c>
       <c r="B921" t="n">
         <v>1.089978610033807e+18</v>
       </c>
@@ -11091,7 +12411,9 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr"/>
+      <c r="A922" t="n">
+        <v>3</v>
+      </c>
       <c r="B922" t="n">
         <v>1.184980562290893e+18</v>
       </c>
@@ -11102,7 +12424,9 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" t="inlineStr"/>
+      <c r="A923" t="n">
+        <v>2</v>
+      </c>
       <c r="B923" t="n">
         <v>1.128504524753252e+18</v>
       </c>
@@ -11113,7 +12437,9 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr"/>
+      <c r="A924" t="n">
+        <v>3</v>
+      </c>
       <c r="B924" t="n">
         <v>1.127578477216109e+18</v>
       </c>
@@ -11124,7 +12450,9 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr"/>
+      <c r="A925" t="n">
+        <v>1</v>
+      </c>
       <c r="B925" t="n">
         <v>1.200220425336361e+18</v>
       </c>
@@ -11135,7 +12463,9 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr"/>
+      <c r="A926" t="n">
+        <v>3</v>
+      </c>
       <c r="B926" t="n">
         <v>1.141416487346983e+18</v>
       </c>
@@ -11146,7 +12476,9 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr"/>
+      <c r="A927" t="n">
+        <v>3</v>
+      </c>
       <c r="B927" t="n">
         <v>1.090771534396969e+18</v>
       </c>
@@ -11170,7 +12502,9 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr"/>
+      <c r="A929" t="n">
+        <v>3</v>
+      </c>
       <c r="B929" t="n">
         <v>1.095267921620881e+18</v>
       </c>
@@ -11181,7 +12515,9 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr"/>
+      <c r="A930" t="n">
+        <v>1</v>
+      </c>
       <c r="B930" t="n">
         <v>1.187322079252832e+18</v>
       </c>
@@ -11192,7 +12528,9 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr"/>
+      <c r="A931" t="n">
+        <v>3</v>
+      </c>
       <c r="B931" t="n">
         <v>1.098186908063224e+18</v>
       </c>
@@ -11203,7 +12541,9 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr"/>
+      <c r="A932" t="n">
+        <v>2</v>
+      </c>
       <c r="B932" t="n">
         <v>1.179731466080674e+18</v>
       </c>
@@ -11214,7 +12554,9 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr"/>
+      <c r="A933" t="n">
+        <v>3</v>
+      </c>
       <c r="B933" t="n">
         <v>1.18556071614686e+18</v>
       </c>
@@ -11225,7 +12567,9 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="inlineStr"/>
+      <c r="A934" t="n">
+        <v>3</v>
+      </c>
       <c r="B934" t="n">
         <v>1.169258995007283e+18</v>
       </c>
@@ -11236,7 +12580,9 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr"/>
+      <c r="A935" t="n">
+        <v>3</v>
+      </c>
       <c r="B935" t="n">
         <v>1.194084980995039e+18</v>
       </c>
@@ -11247,7 +12593,9 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr"/>
+      <c r="A936" t="n">
+        <v>1</v>
+      </c>
       <c r="B936" t="n">
         <v>1.139994614713266e+18</v>
       </c>
@@ -11258,7 +12606,9 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr"/>
+      <c r="A937" t="n">
+        <v>3</v>
+      </c>
       <c r="B937" t="n">
         <v>1.135346723218436e+18</v>
       </c>
@@ -11269,7 +12619,9 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr"/>
+      <c r="A938" t="n">
+        <v>3</v>
+      </c>
       <c r="B938" t="n">
         <v>1.184477991637783e+18</v>
       </c>
@@ -11280,7 +12632,9 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr"/>
+      <c r="A939" t="n">
+        <v>2</v>
+      </c>
       <c r="B939" t="n">
         <v>1.179538303080645e+18</v>
       </c>
@@ -11291,7 +12645,9 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr"/>
+      <c r="A940" t="n">
+        <v>3</v>
+      </c>
       <c r="B940" t="n">
         <v>1.151626687601435e+18</v>
       </c>
@@ -11302,7 +12658,9 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr"/>
+      <c r="A941" t="n">
+        <v>1</v>
+      </c>
       <c r="B941" t="n">
         <v>1.088934899761869e+18</v>
       </c>
@@ -11313,7 +12671,9 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr"/>
+      <c r="A942" t="n">
+        <v>1</v>
+      </c>
       <c r="B942" t="n">
         <v>1.179862971780141e+18</v>
       </c>
@@ -11324,7 +12684,9 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr"/>
+      <c r="A943" t="n">
+        <v>1</v>
+      </c>
       <c r="B943" t="n">
         <v>1.084896454718775e+18</v>
       </c>
@@ -11335,7 +12697,9 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" t="inlineStr"/>
+      <c r="A944" t="n">
+        <v>1</v>
+      </c>
       <c r="B944" t="n">
         <v>1.208949373184467e+18</v>
       </c>
@@ -11346,7 +12710,9 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" t="inlineStr"/>
+      <c r="A945" t="n">
+        <v>3</v>
+      </c>
       <c r="B945" t="n">
         <v>1.170807956360708e+18</v>
       </c>
@@ -11357,7 +12723,9 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr"/>
+      <c r="A946" t="n">
+        <v>3</v>
+      </c>
       <c r="B946" t="n">
         <v>1.14501443723928e+18</v>
       </c>
@@ -11368,7 +12736,9 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr"/>
+      <c r="A947" t="n">
+        <v>1</v>
+      </c>
       <c r="B947" t="n">
         <v>1.10018733566745e+18</v>
       </c>
@@ -11379,7 +12749,9 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr"/>
+      <c r="A948" t="n">
+        <v>3</v>
+      </c>
       <c r="B948" t="n">
         <v>1.154596706912211e+18</v>
       </c>
@@ -11390,7 +12762,9 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" t="inlineStr"/>
+      <c r="A949" t="n">
+        <v>3</v>
+      </c>
       <c r="B949" t="n">
         <v>1.183973981105328e+18</v>
       </c>
@@ -11401,7 +12775,9 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" t="inlineStr"/>
+      <c r="A950" t="n">
+        <v>3</v>
+      </c>
       <c r="B950" t="n">
         <v>1.093909050176299e+18</v>
       </c>
@@ -11412,7 +12788,9 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" t="inlineStr"/>
+      <c r="A951" t="n">
+        <v>3</v>
+      </c>
       <c r="B951" t="n">
         <v>1.179928542664172e+18</v>
       </c>
@@ -11423,7 +12801,9 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr"/>
+      <c r="A952" t="n">
+        <v>2</v>
+      </c>
       <c r="B952" t="n">
         <v>1.139988184903934e+18</v>
       </c>
@@ -11434,7 +12814,9 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr"/>
+      <c r="A953" t="n">
+        <v>2</v>
+      </c>
       <c r="B953" t="n">
         <v>1.173277547968307e+18</v>
       </c>
@@ -11445,7 +12827,9 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" t="inlineStr"/>
+      <c r="A954" t="n">
+        <v>3</v>
+      </c>
       <c r="B954" t="n">
         <v>1.119352060342931e+18</v>
       </c>
@@ -11456,7 +12840,9 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" t="inlineStr"/>
+      <c r="A955" t="n">
+        <v>1</v>
+      </c>
       <c r="B955" t="n">
         <v>1.179722803723026e+18</v>
       </c>
@@ -11467,7 +12853,9 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" t="inlineStr"/>
+      <c r="A956" t="n">
+        <v>3</v>
+      </c>
       <c r="B956" t="n">
         <v>1.146574368950149e+18</v>
       </c>
@@ -11478,7 +12866,9 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" t="inlineStr"/>
+      <c r="A957" t="n">
+        <v>2</v>
+      </c>
       <c r="B957" t="n">
         <v>1.20244313551684e+18</v>
       </c>
@@ -11489,7 +12879,9 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr"/>
+      <c r="A958" t="n">
+        <v>3</v>
+      </c>
       <c r="B958" t="n">
         <v>1.186047772837007e+18</v>
       </c>
@@ -11500,7 +12892,9 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr"/>
+      <c r="A959" t="n">
+        <v>3</v>
+      </c>
       <c r="B959" t="n">
         <v>1.128546017660613e+18</v>
       </c>
@@ -11511,7 +12905,9 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr"/>
+      <c r="A960" t="n">
+        <v>3</v>
+      </c>
       <c r="B960" t="n">
         <v>1.145084673745412e+18</v>
       </c>
@@ -11522,7 +12918,9 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr"/>
+      <c r="A961" t="n">
+        <v>1</v>
+      </c>
       <c r="B961" t="n">
         <v>1.118592669796786e+18</v>
       </c>
@@ -11533,7 +12931,9 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr"/>
+      <c r="A962" t="n">
+        <v>2</v>
+      </c>
       <c r="B962" t="n">
         <v>1.171523098874483e+18</v>
       </c>
@@ -11544,7 +12944,9 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr"/>
+      <c r="A963" t="n">
+        <v>1</v>
+      </c>
       <c r="B963" t="n">
         <v>1.104192077984924e+18</v>
       </c>
@@ -11555,7 +12957,9 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr"/>
+      <c r="A964" t="n">
+        <v>2</v>
+      </c>
       <c r="B964" t="n">
         <v>1.112872990335791e+18</v>
       </c>
@@ -11566,7 +12970,9 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" t="inlineStr"/>
+      <c r="A965" t="n">
+        <v>2</v>
+      </c>
       <c r="B965" t="n">
         <v>1.148954606233444e+18</v>
       </c>
